--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMDLAB\Documents\Python-Experiments\psychopy-scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMDLAB\Documents\Python-Experiments\Vibration-targeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F2BDCC-14FE-4F02-B43D-9C00E2EC8791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC5D4D-29E0-40E1-B6F8-71E3C9F90C88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>30</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>30</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMDLAB\Documents\Python-Experiments\Vibration-targeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC5D4D-29E0-40E1-B6F8-71E3C9F90C88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A79BB-978F-4956-9309-E9DE99104075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="5" r:id="rId1"/>
-    <sheet name="Testing" sheetId="6" r:id="rId2"/>
-    <sheet name="Practice" sheetId="1" r:id="rId3"/>
-    <sheet name="Baseline" sheetId="2" r:id="rId4"/>
-    <sheet name="Exposure" sheetId="3" r:id="rId5"/>
-    <sheet name="Post" sheetId="4" r:id="rId6"/>
+    <sheet name="trial-randomizer" sheetId="7" r:id="rId1"/>
+    <sheet name="Template" sheetId="5" r:id="rId2"/>
+    <sheet name="Testing" sheetId="6" r:id="rId3"/>
+    <sheet name="Practice" sheetId="1" r:id="rId4"/>
+    <sheet name="Baseline" sheetId="2" r:id="rId5"/>
+    <sheet name="Exposure" sheetId="3" r:id="rId6"/>
+    <sheet name="Post" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -531,6 +532,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAED357-3816-4D39-B84F-5153F27D449A}">
+  <dimension ref="B2:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>135</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>135</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>135</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>105</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f ca="1">RAND()</f>
+        <v>3.508223901441021E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>135</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f ca="1">RAND()</f>
+        <v>0.43102026259885295</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f ca="1">RAND()</f>
+        <v>0.14443544239351669</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f ca="1">RAND()</f>
+        <v>0.1288859155447053</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f ca="1">RAND()</f>
+        <v>0.6553150738216893</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>135</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f ca="1">RAND()</f>
+        <v>0.46792531755523836</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f ca="1">RAND()</f>
+        <v>0.59150377058143933</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f ca="1">RAND()</f>
+        <v>0.34309023409666761</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f ca="1">RAND()</f>
+        <v>1.7703693703573276E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f ca="1">RAND()</f>
+        <v>0.48666976131788564</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>135</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f ca="1">RAND()</f>
+        <v>9.7499552361893893E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>105</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f ca="1">RAND()</f>
+        <v>0.78951459901991983</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f ca="1">RAND()</f>
+        <v>0.94478999378846662</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f ca="1">RAND()</f>
+        <v>0.85073631269604466</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>105</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f ca="1">RAND()</f>
+        <v>0.17769023260274996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>135</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f ca="1">RAND()</f>
+        <v>0.55339215213333093</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B21:D36">
+    <sortCondition ref="D21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302C59BC-9A6B-4254-B1F5-C8023870975C}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -712,15 +1051,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99B65C-ABAC-4777-BF85-4382D600E37D}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,8 +1146,8 @@
       <c r="J2" s="1">
         <v>30</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
+      <c r="K2">
+        <v>3</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -819,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -845,8 +1184,8 @@
       <c r="J3" s="1">
         <v>30</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
+      <c r="K3">
+        <v>2</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -883,7 +1222,7 @@
       <c r="J4" s="1">
         <v>30</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" s="12">
@@ -921,10 +1260,2898 @@
       <c r="J5" s="1">
         <v>30</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>135</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>135</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>105</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>30</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>135</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>135</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>30</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>105</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>30</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>105</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>30</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>30</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>135</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>30</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>30</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>135</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>30</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>30</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>105</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>30</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>75</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>30</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>135</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>30</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>105</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>30</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>30</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>135</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>30</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>105</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>30</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>75</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>30</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>30</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>135</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>30</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>45</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>30</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>105</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>30</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>105</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>30</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>75</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>30</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>75</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>30</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>135</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>30</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>75</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>30</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>30</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>75</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>30</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>135</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>30</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>105</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>30</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>45</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>30</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>45</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>45</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>30</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>105</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>30</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>135</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>30</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>75</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>30</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>105</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>30</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>45</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>30</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>135</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>30</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>30</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>45</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>30</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>75</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>30</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>30</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>135</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>30</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>105</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>30</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>30</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>45</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>30</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>105</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>30</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>135</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>30</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" s="12">
         <v>0</v>
       </c>
     </row>
@@ -933,7 +4160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1364,7 +4591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2145,7 +5372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4326,7 +7553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMDLAB\Documents\Python-Experiments\Vibration-targeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A79BB-978F-4956-9309-E9DE99104075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FAEF51-161D-4724-AD57-9C9D6D7B2E46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trial-randomizer" sheetId="7" r:id="rId1"/>
@@ -535,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAED357-3816-4D39-B84F-5153F27D449A}">
   <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -677,8 +677,8 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <f ca="1">RAND()</f>
-        <v>3.508223901441021E-2</v>
+        <f t="shared" ref="D21:D36" ca="1" si="0">RAND()</f>
+        <v>0.33000403608551854</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -689,8 +689,8 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <f ca="1">RAND()</f>
-        <v>0.43102026259885295</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47223313897931385</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -701,8 +701,8 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <f ca="1">RAND()</f>
-        <v>0.14443544239351669</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89416132333280685</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -713,8 +713,8 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <f ca="1">RAND()</f>
-        <v>0.1288859155447053</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39049068351369343</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -725,8 +725,8 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <f ca="1">RAND()</f>
-        <v>0.6553150738216893</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70283948166184662</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -737,8 +737,8 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <f ca="1">RAND()</f>
-        <v>0.46792531755523836</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90564428817636089</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -749,8 +749,8 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f ca="1">RAND()</f>
-        <v>0.59150377058143933</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82484752720354737</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -761,8 +761,8 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <f ca="1">RAND()</f>
-        <v>0.34309023409666761</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7972225350940626</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -773,8 +773,8 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <f ca="1">RAND()</f>
-        <v>1.7703693703573276E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57989815612290718</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -785,8 +785,8 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <f ca="1">RAND()</f>
-        <v>0.48666976131788564</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79075733454041075</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -797,8 +797,8 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <f ca="1">RAND()</f>
-        <v>9.7499552361893893E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26582603891013745</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -809,8 +809,8 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <f ca="1">RAND()</f>
-        <v>0.78951459901991983</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21658644301855456</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -821,8 +821,8 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <f ca="1">RAND()</f>
-        <v>0.94478999378846662</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75481433021217581</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -833,8 +833,8 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f ca="1">RAND()</f>
-        <v>0.85073631269604466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3438951767883185E-2</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -845,8 +845,8 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <f ca="1">RAND()</f>
-        <v>0.17769023260274996</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6149211290699832</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -857,8 +857,8 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <f ca="1">RAND()</f>
-        <v>0.55339215213333093</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56034159082828483</v>
       </c>
     </row>
   </sheetData>
@@ -1056,10 +1056,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="N87" sqref="N87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,10 +1126,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1202,10 +1202,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1240,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1316,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1392,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1468,10 +1468,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1755,7 +1755,7 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="12">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -1793,7 +1793,7 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" s="12">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1831,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" s="12">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -1869,7 +1869,7 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="12">
         <v>0</v>
@@ -1880,16 +1880,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" s="12">
         <v>0</v>
@@ -1918,16 +1918,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" s="12">
         <v>0</v>
@@ -1956,16 +1956,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1994,16 +1994,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>30</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="12">
         <v>0</v>
@@ -2038,10 +2038,10 @@
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>30</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" s="12">
         <v>0</v>
@@ -2070,16 +2070,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>30</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="12">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>30</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" s="12">
         <v>0</v>
@@ -2146,16 +2146,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2184,16 +2184,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>30</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="12">
         <v>0</v>
@@ -2228,10 +2228,10 @@
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>30</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="12">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>30</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32" s="12">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>30</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12">
         <v>0</v>
@@ -2336,16 +2336,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>30</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="12">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>30</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35" s="12">
         <v>0</v>
@@ -2412,16 +2412,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>30</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36" s="12">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>30</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="12">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -2515,7 +2515,7 @@
         <v>30</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L38" s="12">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>30</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39" s="12">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>30</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40" s="12">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
@@ -2646,10 +2646,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>30</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42" s="12">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>3</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>30</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43" s="12">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>30</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44" s="12">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>30</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45" s="12">
         <v>0</v>
@@ -2792,16 +2792,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -2830,16 +2830,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C47" s="1">
         <v>3</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>30</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47" s="12">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>30</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L48" s="12">
         <v>0</v>
@@ -2906,16 +2906,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>30</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="12">
         <v>0</v>
@@ -2944,16 +2944,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1">
         <v>3</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>30</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L50" s="12">
         <v>0</v>
@@ -2982,16 +2982,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1">
         <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>30</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51" s="12">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>30</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" s="12">
         <v>0</v>
@@ -3058,16 +3058,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" s="12">
         <v>0</v>
@@ -3096,16 +3096,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1">
         <v>3</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3134,16 +3134,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1">
         <v>3</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>30</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="12">
         <v>0</v>
@@ -3172,16 +3172,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>30</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="12">
         <v>0</v>
@@ -3210,16 +3210,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1">
         <v>3</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>30</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L57" s="12">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1">
         <v>3</v>
@@ -3275,7 +3275,7 @@
         <v>30</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L58" s="12">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
@@ -3351,7 +3351,7 @@
         <v>30</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L60" s="12">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1">
         <v>3</v>
@@ -3400,16 +3400,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>30</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62" s="12">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>30</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" s="12">
         <v>0</v>
@@ -3476,16 +3476,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
       </c>
       <c r="D64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>30</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L64" s="12">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C65" s="1">
         <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3552,16 +3552,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C66" s="1">
         <v>3</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         <v>30</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L66" s="12">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C67" s="1">
         <v>3</v>
       </c>
       <c r="D67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         <v>30</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67" s="12">
         <v>0</v>
@@ -3628,16 +3628,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C68" s="1">
         <v>3</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>30</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="12">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C69" s="1">
         <v>3</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>30</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69" s="12">
         <v>0</v>
@@ -3704,16 +3704,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
       </c>
       <c r="D70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>30</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L70" s="12">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
       </c>
       <c r="D71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>30</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L71" s="12">
         <v>0</v>
@@ -3780,16 +3780,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1">
         <v>3</v>
       </c>
       <c r="D72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>30</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72" s="12">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C73" s="1">
         <v>3</v>
       </c>
       <c r="D73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>30</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="12">
         <v>0</v>
@@ -3856,16 +3856,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C74" s="1">
         <v>3</v>
       </c>
       <c r="D74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>30</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="12">
         <v>0</v>
@@ -3894,16 +3894,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C75" s="1">
         <v>3</v>
       </c>
       <c r="D75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>30</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L75" s="12">
         <v>0</v>
@@ -3932,16 +3932,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
       </c>
       <c r="D76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>30</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L76" s="12">
         <v>0</v>
@@ -3970,16 +3970,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C77" s="1">
         <v>3</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>30</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="12">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C78" s="1">
         <v>3</v>
@@ -4035,7 +4035,7 @@
         <v>30</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78" s="12">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1">
         <v>3</v>
@@ -4073,7 +4073,7 @@
         <v>30</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L79" s="12">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>30</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L80" s="12">
         <v>0</v>
@@ -4152,6 +4152,614 @@
         <v>0</v>
       </c>
       <c r="L81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>105</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>30</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>135</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>30</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>75</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>30</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>105</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>30</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>45</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>30</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>135</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>30</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>45</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>30</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>45</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>30</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>75</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>30</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>75</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>30</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>135</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>30</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>105</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>30</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>75</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>30</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>45</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>30</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>105</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>30</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>135</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>30</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4165,10 +4773,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4228,8 +4836,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>90</v>
+      <c r="B2">
+        <v>45</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -4237,8 +4845,8 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -4253,9 +4861,9 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" s="12">
@@ -4266,8 +4874,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
+      <c r="B3">
+        <v>105</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -4275,8 +4883,8 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4291,9 +4899,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+        <v>30</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="12">
@@ -4304,8 +4912,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>180</v>
+      <c r="B4">
+        <v>105</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -4313,8 +4921,8 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4329,9 +4937,9 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+        <v>30</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" s="12">
@@ -4342,8 +4950,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>45</v>
+      <c r="B5">
+        <v>135</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -4351,8 +4959,8 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4367,9 +4975,9 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" s="12">
@@ -4380,8 +4988,8 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>135</v>
+      <c r="B6">
+        <v>45</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -4389,8 +4997,8 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4405,9 +5013,12 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4415,8 +5026,8 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>90</v>
+      <c r="B7">
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -4424,8 +5035,8 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4440,9 +5051,12 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4450,8 +5064,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>110</v>
+      <c r="B8">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -4459,8 +5073,8 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4475,9 +5089,12 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4485,8 +5102,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>70</v>
+      <c r="B9">
+        <v>135</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -4494,8 +5111,8 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4510,9 +5127,12 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4520,8 +5140,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>80</v>
+      <c r="B10">
+        <v>135</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -4529,8 +5149,8 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4545,9 +5165,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4555,8 +5178,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>100</v>
+      <c r="B11">
+        <v>135</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -4564,8 +5187,8 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4580,9 +5203,240 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
         <v>0</v>
       </c>
     </row>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMDLAB\Documents\Python-Experiments\Vibration-targeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FAEF51-161D-4724-AD57-9C9D6D7B2E46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3938347-A467-4A0D-8177-25927A3AAA01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trial-randomizer" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
   <si>
     <t>trial_num</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>rotation</t>
-  </si>
-  <si>
-    <t>0,0</t>
   </si>
   <si>
     <t>rotation_direction</t>
@@ -109,15 +106,23 @@
     <t>vibration</t>
   </si>
   <si>
-    <t>Vibration = 1
-No Vibration = 0</t>
-  </si>
-  <si>
     <t>trial_type</t>
   </si>
   <si>
     <t>0=slice
 1=stop</t>
+  </si>
+  <si>
+    <t>0 = NV
+1 = Both
+2 = Extensor
+3 = Flexor</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Vibration</t>
   </si>
 </sst>
 </file>
@@ -533,337 +538,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAED357-3816-4D39-B84F-5153F27D449A}">
-  <dimension ref="B2:D36"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>90</v>
+      </c>
       <c r="B2">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
       <c r="B3">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>130</v>
+      </c>
       <c r="B4">
-        <v>105</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>90</v>
+      </c>
       <c r="B5">
-        <v>135</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
       <c r="B6">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>130</v>
+      </c>
       <c r="B7">
-        <v>75</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>90</v>
+      </c>
       <c r="B8">
-        <v>105</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
       <c r="B9">
-        <v>135</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>130</v>
+      </c>
       <c r="B10">
-        <v>45</v>
-      </c>
-      <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
       <c r="B11">
-        <v>75</v>
-      </c>
-      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f ca="1">RAND()</f>
+        <v>0.63949888319026815</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f ca="1">RAND()</f>
+        <v>0.6565460427565275</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>130</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>105</v>
-      </c>
-      <c r="C12">
+      <c r="F21">
+        <f ca="1">RAND()</f>
+        <v>0.242898073076532</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f ca="1">RAND()</f>
+        <v>2.8342168958906955E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>130</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f ca="1">RAND()</f>
+        <v>0.94667442671681434</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>135</v>
-      </c>
-      <c r="C13">
+      <c r="F24">
+        <f ca="1">RAND()</f>
+        <v>0.5970164011611262</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f ca="1">RAND()</f>
+        <v>0.54429642181397653</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>90</v>
+      </c>
+      <c r="E26">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>45</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>105</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>135</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>105</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21:D36" ca="1" si="0">RAND()</f>
-        <v>0.33000403608551854</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>135</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47223313897931385</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>75</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89416132333280685</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>105</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39049068351369343</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>45</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70283948166184662</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>135</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.90564428817636089</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>45</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
+      <c r="F26">
+        <f ca="1">RAND()</f>
+        <v>0.57421260349654923</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82484752720354737</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>45</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <f ca="1">RAND()</f>
+        <v>0.26260894200343943</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7972225350940626</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>75</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <f ca="1">RAND()</f>
+        <v>0.47134116930119752</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57989815612290718</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>75</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f ca="1">RAND()</f>
+        <v>0.17225785219133771</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79075733454041075</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>135</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26582603891013745</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>105</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21658644301855456</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>75</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75481433021217581</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>45</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3438951767883185E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>105</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6149211290699832</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>135</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56034159082828483</v>
+        <v>90</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f ca="1">RAND()</f>
+        <v>0.12047055247437677</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B21:D36">
-    <sortCondition ref="D21"/>
+  <sortState ref="D19:F30">
+    <sortCondition ref="F19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -877,7 +810,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +827,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -906,72 +839,72 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="L2" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1058,8 +991,8 @@
   </sheetPr>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,31 +1021,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4773,10 +4706,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4805,51 +4738,47 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -4861,9 +4790,6 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>30</v>
-      </c>
-      <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" s="12">
@@ -4871,574 +4797,214 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>105</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>105</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>135</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>105</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>30</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>135</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>135</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>30</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>135</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>75</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>105</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>30</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>75</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>30</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>75</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>30</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5453,7 +5019,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5482,51 +5048,47 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>120</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1"/>
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -5540,686 +5102,259 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
       <c r="L2" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>80</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>120</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>80</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>120</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>60</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>80</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <v>80</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1">
-        <v>120</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
-        <v>80</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6234,7 +5369,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6263,51 +5398,47 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>120</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1"/>
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -6321,2086 +5452,779 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
       <c r="L2" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>80</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>120</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>80</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>120</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>60</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>120</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>80</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>120</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>80</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>60</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>100</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>80</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>120</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>100</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>80</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>120</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>80</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>120</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>60</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>100</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>80</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>120</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>60</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>100</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>80</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>120</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>100</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>80</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>60</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>120</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>100</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>80</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="1">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>120</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>100</v>
-      </c>
-      <c r="C52" s="1">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>80</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <v>120</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1">
-        <v>100</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <v>80</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1">
-        <v>60</v>
-      </c>
-      <c r="C57" s="1">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
-        <v>0</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1">
-        <v>120</v>
-      </c>
-      <c r="C58" s="1">
-        <v>3</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
-        <v>0</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1">
-        <v>100</v>
-      </c>
-      <c r="C59" s="1">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <v>80</v>
-      </c>
-      <c r="C60" s="1">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0</v>
-      </c>
-      <c r="K60" s="1">
-        <v>0</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1">
-        <v>60</v>
-      </c>
-      <c r="C61" s="1">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
-        <v>0</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8415,7 +6239,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8444,47 +6268,57 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1">
-        <v>120</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="12">
@@ -8492,336 +6326,121 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>80</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>120</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>100</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>80</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>120</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1">
-        <v>80</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>100</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>80</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>120</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>100</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>80</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMDLAB\Documents\Python-Experiments\Vibration-targeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC154A-E78F-463D-ADD4-9802EC962C1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A94B2-B4E3-49B8-948E-1A48C29A05C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trial-randomizer" sheetId="7" r:id="rId1"/>
     <sheet name="Template" sheetId="5" r:id="rId2"/>
-    <sheet name="Practice" sheetId="1" r:id="rId3"/>
-    <sheet name="Baseline" sheetId="2" r:id="rId4"/>
-    <sheet name="Testing" sheetId="6" r:id="rId5"/>
-    <sheet name="Exposure" sheetId="3" r:id="rId6"/>
-    <sheet name="Post" sheetId="4" r:id="rId7"/>
+    <sheet name="piloting" sheetId="8" r:id="rId3"/>
+    <sheet name="Practice" sheetId="1" r:id="rId4"/>
+    <sheet name="Baseline" sheetId="2" r:id="rId5"/>
+    <sheet name="Testing" sheetId="6" r:id="rId6"/>
+    <sheet name="Exposure" sheetId="3" r:id="rId7"/>
+    <sheet name="Post" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
   <si>
     <t>trial_num</t>
   </si>
@@ -674,7 +675,7 @@
       </c>
       <c r="M9">
         <f t="shared" ref="M9:M53" ca="1" si="0">RAND()</f>
-        <v>0.80468579578641375</v>
+        <v>0.77906658757826763</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -710,7 +711,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91297503659135359</v>
+        <v>7.9390770294587298E-3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -746,7 +747,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57169980737324255</v>
+        <v>0.90848210804512441</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -782,7 +783,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97087908327769823</v>
+        <v>0.49676837877461288</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -818,7 +819,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8400172817122371E-3</v>
+        <v>0.20306417444147973</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -854,7 +855,7 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65259485689422192</v>
+        <v>0.5222630254603251</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -890,7 +891,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22686730470812433</v>
+        <v>6.6005002790381795E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -926,7 +927,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61298544676515554</v>
+        <v>0.20482639399832092</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -962,7 +963,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87863866880720465</v>
+        <v>0.9994914531450555</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -998,7 +999,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5778277234357958</v>
+        <v>0.46280248515957378</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -1034,7 +1035,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27625577676362889</v>
+        <v>0.44317348744045237</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -1070,7 +1071,7 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16126673806936886</v>
+        <v>0.6361583918621736</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99158428197255011</v>
+        <v>0.69987886059092075</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -1142,7 +1143,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32677638869472025</v>
+        <v>0.24316124539535944</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -1178,7 +1179,7 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82596302645671049</v>
+        <v>0.72749463254399294</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -1215,7 +1216,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79994975824912751</v>
+        <v>3.858449445345935E-2</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -1252,7 +1253,7 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8610468505784995</v>
+        <v>0.73497805434266639</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -1289,7 +1290,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72521671129027021</v>
+        <v>0.11109916753044946</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -1326,7 +1327,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99419753916104237</v>
+        <v>0.76800443472400293</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -1363,7 +1364,7 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3457397483756979E-2</v>
+        <v>0.68451367705022204</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -1400,7 +1401,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6692591084889008</v>
+        <v>0.7267660962730359</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -1437,7 +1438,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37230898269111912</v>
+        <v>0.2256771260069379</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -1474,7 +1475,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49431906182772956</v>
+        <v>0.79615935714482522</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -1511,7 +1512,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10543169576278966</v>
+        <v>0.77784787184769499</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -1548,7 +1549,7 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70032223081941047</v>
+        <v>0.19361052336197593</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -1585,7 +1586,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43860481970414544</v>
+        <v>0.65994142964305624</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -1622,7 +1623,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96877963797414324</v>
+        <v>0.20928458788207427</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -1659,7 +1660,7 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8260881048146667E-3</v>
+        <v>1.5644707722125339E-2</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -1696,7 +1697,7 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79215027062649235</v>
+        <v>0.8231543304035881</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -1733,7 +1734,7 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9956268135439823</v>
+        <v>0.463601300858966</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -1770,7 +1771,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75833678048458042</v>
+        <v>0.89085935334247879</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -1807,7 +1808,7 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80973428403296277</v>
+        <v>0.38613325674334109</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -1844,7 +1845,7 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85914240775794748</v>
+        <v>0.27910317307137056</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -1881,7 +1882,7 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59529252377928565</v>
+        <v>0.95935824840301165</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -1918,7 +1919,7 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2220811245459871E-2</v>
+        <v>0.44425951142123554</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -1955,7 +1956,7 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84000357434765838</v>
+        <v>0.56315172506679223</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -1992,7 +1993,7 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62404156956280776</v>
+        <v>0.31311074596096022</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -2029,7 +2030,7 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.227180628915292E-2</v>
+        <v>0.29081375689357469</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -2066,7 +2067,7 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51795635235002957</v>
+        <v>0.44567033133394784</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -2103,7 +2104,7 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85530051978863297</v>
+        <v>7.278844504734705E-3</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -2140,7 +2141,7 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26638603900338742</v>
+        <v>0.9023520084664971</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -2177,7 +2178,7 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88953953469143243</v>
+        <v>0.39357616201186929</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -2214,7 +2215,7 @@
       <c r="L51" s="18"/>
       <c r="M51" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45961271880205379</v>
+        <v>0.70453994938690401</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -2251,7 +2252,7 @@
       <c r="L52" s="18"/>
       <c r="M52" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22537866847729382</v>
+        <v>0.76980604487947613</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -2288,7 +2289,7 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94864207797486089</v>
+        <v>0.34625119819963779</v>
       </c>
     </row>
   </sheetData>
@@ -2485,6 +2486,320 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B58403C-C233-469B-B0D8-C8C71C2B477E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3123,7 +3438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4332,14 +4647,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99B65C-ABAC-4777-BF85-4382D600E37D}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:XEZ421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+    <sheetView topLeftCell="A403" workbookViewId="0">
       <selection activeCell="K430" sqref="K430"/>
     </sheetView>
   </sheetViews>
@@ -85834,7 +86149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -86704,7 +87019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMDLAB\Documents\Python-Experiments\Vibration-targeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A94B2-B4E3-49B8-948E-1A48C29A05C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9925A92-4615-4271-BB44-DBE830341E22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,7 +675,7 @@
       </c>
       <c r="M9">
         <f t="shared" ref="M9:M53" ca="1" si="0">RAND()</f>
-        <v>0.77906658757826763</v>
+        <v>0.4691134065363175</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9390770294587298E-3</v>
+        <v>0.54837096167617883</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90848210804512441</v>
+        <v>0.50408222036661043</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49676837877461288</v>
+        <v>0.46358393517942043</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20306417444147973</v>
+        <v>0.29532415146881108</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5222630254603251</v>
+        <v>0.63443614323832953</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6005002790381795E-2</v>
+        <v>0.68085457236413993</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20482639399832092</v>
+        <v>0.59263042463033877</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9994914531450555</v>
+        <v>0.46979818064891887</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46280248515957378</v>
+        <v>0.95910946200577307</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44317348744045237</v>
+        <v>0.65948908783655991</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6361583918621736</v>
+        <v>0.94739226413262712</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69987886059092075</v>
+        <v>0.16247185019999355</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24316124539535944</v>
+        <v>9.4615039530601575E-2</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72749463254399294</v>
+        <v>0.56926817662143303</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>3.858449445345935E-2</v>
+        <v>0.66774555261899071</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73497805434266639</v>
+        <v>0.29383739808735632</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11109916753044946</v>
+        <v>0.98452134791782575</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76800443472400293</v>
+        <v>0.9294480118345696</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68451367705022204</v>
+        <v>0.55102612499642811</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -1401,7 +1401,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7267660962730359</v>
+        <v>0.73015525803365433</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2256771260069379</v>
+        <v>0.11829514372767003</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79615935714482522</v>
+        <v>0.81817620794197266</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77784787184769499</v>
+        <v>0.57446262248055979</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19361052336197593</v>
+        <v>0.561393552265816</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65994142964305624</v>
+        <v>0.57803799363572161</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20928458788207427</v>
+        <v>0.34453399206427404</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5644707722125339E-2</v>
+        <v>6.6698654614902875E-2</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8231543304035881</v>
+        <v>0.23561446550790299</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.463601300858966</v>
+        <v>0.75667825684595125</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89085935334247879</v>
+        <v>0.12280010105187389</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38613325674334109</v>
+        <v>0.15955696607338621</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27910317307137056</v>
+        <v>0.35986014387181708</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95935824840301165</v>
+        <v>0.28184966340883133</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44425951142123554</v>
+        <v>0.86414424531929501</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56315172506679223</v>
+        <v>0.16511000498822359</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31311074596096022</v>
+        <v>0.9802213252244687</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29081375689357469</v>
+        <v>0.16137306661876361</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44567033133394784</v>
+        <v>0.24439477629265494</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>7.278844504734705E-3</v>
+        <v>0.63898218058999612</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9023520084664971</v>
+        <v>0.27395864189826624</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39357616201186929</v>
+        <v>0.87255473785924276</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
       <c r="L51" s="18"/>
       <c r="M51" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70453994938690401</v>
+        <v>8.8495593532490036E-2</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
       <c r="L52" s="18"/>
       <c r="M52" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76980604487947613</v>
+        <v>0.84270981798849864</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -2289,7 +2289,7 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34625119819963779</v>
+        <v>0.27735044788224805</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2493,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,7 +2557,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2595,7 +2595,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2626,17 +2626,42 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2807,7 +2832,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMDLAB\Documents\Python-Experiments\Vibration-targeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9925A92-4615-4271-BB44-DBE830341E22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603CCE0-D6FF-4812-9ECC-A19E5160FDA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trial-randomizer" sheetId="7" r:id="rId1"/>
@@ -675,7 +675,7 @@
       </c>
       <c r="M9">
         <f t="shared" ref="M9:M53" ca="1" si="0">RAND()</f>
-        <v>0.4691134065363175</v>
+        <v>0.95999238406387011</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54837096167617883</v>
+        <v>0.6928820818697693</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50408222036661043</v>
+        <v>0.98111202818925503</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46358393517942043</v>
+        <v>1.0683950497254679E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29532415146881108</v>
+        <v>0.37357806617610023</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63443614323832953</v>
+        <v>0.74867696727557265</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68085457236413993</v>
+        <v>0.18506286601502997</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59263042463033877</v>
+        <v>0.81173092205031605</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46979818064891887</v>
+        <v>0.37479706209814123</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95910946200577307</v>
+        <v>0.630896385928847</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65948908783655991</v>
+        <v>3.8878603324208116E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94739226413262712</v>
+        <v>0.47901249395846424</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16247185019999355</v>
+        <v>0.36708948832284971</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4615039530601575E-2</v>
+        <v>0.40495679347512059</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56926817662143303</v>
+        <v>0.75727009295892267</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66774555261899071</v>
+        <v>0.86198177285535182</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29383739808735632</v>
+        <v>0.27481780182565785</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98452134791782575</v>
+        <v>0.73819106388535305</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9294480118345696</v>
+        <v>0.35924485422336661</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55102612499642811</v>
+        <v>4.5578858399480393E-2</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -1401,7 +1401,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73015525803365433</v>
+        <v>0.16744633564854039</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11829514372767003</v>
+        <v>2.7566213489202962E-2</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81817620794197266</v>
+        <v>0.90100049775363433</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57446262248055979</v>
+        <v>0.19174083320580659</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.561393552265816</v>
+        <v>0.60985885421733121</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57803799363572161</v>
+        <v>0.87710081053821354</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34453399206427404</v>
+        <v>0.82853982393325776</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6698654614902875E-2</v>
+        <v>0.48460651480896122</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23561446550790299</v>
+        <v>9.9461001563469598E-2</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75667825684595125</v>
+        <v>0.2092593179292852</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12280010105187389</v>
+        <v>0.52022689272278466</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15955696607338621</v>
+        <v>0.11345443269600386</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35986014387181708</v>
+        <v>0.77026678957513883</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28184966340883133</v>
+        <v>0.46511425191862588</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86414424531929501</v>
+        <v>0.24767301705114209</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16511000498822359</v>
+        <v>0.85840970767067959</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9802213252244687</v>
+        <v>1.3768518306925714E-2</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16137306661876361</v>
+        <v>0.50385119207303986</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24439477629265494</v>
+        <v>0.67437014464340228</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63898218058999612</v>
+        <v>0.46966899488207692</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27395864189826624</v>
+        <v>0.86746814363135027</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87255473785924276</v>
+        <v>0.54076152425286694</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
       <c r="L51" s="18"/>
       <c r="M51" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8495593532490036E-2</v>
+        <v>0.65056266963756137</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
       <c r="L52" s="18"/>
       <c r="M52" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84270981798849864</v>
+        <v>0.33301741829107745</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -2289,7 +2289,7 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27735044788224805</v>
+        <v>6.2792438953152119E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2492,8 +2492,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,7 +2832,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,7 +2896,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2934,7 +2934,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2972,7 +2972,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3010,7 +3010,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3048,7 +3048,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3086,7 +3086,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -3124,7 +3124,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -3162,7 +3162,7 @@
         <v>130</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -3200,7 +3200,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -3238,7 +3238,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -3276,7 +3276,7 @@
         <v>130</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -3314,7 +3314,7 @@
         <v>50</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         <v>130</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -3428,7 +3428,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -3470,8 +3470,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD162"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,7 +3535,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -3725,7 +3725,7 @@
         <v>130</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>90</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>130</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>130</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>130</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>130</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>130</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>90</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>90</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>130</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>90</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -4561,7 +4561,7 @@
         <v>130</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -4599,7 +4599,7 @@
         <v>130</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>90</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -4679,8 +4679,8 @@
   </sheetPr>
   <dimension ref="A1:XEZ421"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="K430" sqref="K430"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4745,7 +4745,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -4783,7 +4783,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>130</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -4859,7 +4859,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -4935,7 +4935,7 @@
         <v>130</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>90</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -5011,7 +5011,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5048,8 +5048,8 @@
       <c r="B10" s="20">
         <v>130</v>
       </c>
-      <c r="C10" s="19">
-        <v>3</v>
+      <c r="C10" s="1">
+        <v>7</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
@@ -5086,8 +5086,8 @@
       <c r="B11">
         <v>90</v>
       </c>
-      <c r="C11">
-        <v>3</v>
+      <c r="C11" s="1">
+        <v>7</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -5124,8 +5124,8 @@
       <c r="B12">
         <v>130</v>
       </c>
-      <c r="C12">
-        <v>3</v>
+      <c r="C12" s="1">
+        <v>7</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5162,8 +5162,8 @@
       <c r="B13">
         <v>90</v>
       </c>
-      <c r="C13">
-        <v>3</v>
+      <c r="C13" s="1">
+        <v>7</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5200,8 +5200,8 @@
       <c r="B14">
         <v>130</v>
       </c>
-      <c r="C14">
-        <v>3</v>
+      <c r="C14" s="1">
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -5238,8 +5238,8 @@
       <c r="B15">
         <v>130</v>
       </c>
-      <c r="C15">
-        <v>3</v>
+      <c r="C15" s="1">
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -5276,8 +5276,8 @@
       <c r="B16">
         <v>50</v>
       </c>
-      <c r="C16">
-        <v>3</v>
+      <c r="C16" s="1">
+        <v>7</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5314,8 +5314,8 @@
       <c r="B17">
         <v>50</v>
       </c>
-      <c r="C17">
-        <v>3</v>
+      <c r="C17" s="1">
+        <v>7</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5352,8 +5352,8 @@
       <c r="B18">
         <v>50</v>
       </c>
-      <c r="C18">
-        <v>3</v>
+      <c r="C18" s="1">
+        <v>7</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5390,8 +5390,8 @@
       <c r="B19">
         <v>50</v>
       </c>
-      <c r="C19">
-        <v>3</v>
+      <c r="C19" s="1">
+        <v>7</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5428,8 +5428,8 @@
       <c r="B20">
         <v>130</v>
       </c>
-      <c r="C20">
-        <v>3</v>
+      <c r="C20" s="1">
+        <v>7</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5466,8 +5466,8 @@
       <c r="B21">
         <v>90</v>
       </c>
-      <c r="C21">
-        <v>3</v>
+      <c r="C21" s="1">
+        <v>7</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5504,8 +5504,8 @@
       <c r="B22">
         <v>130</v>
       </c>
-      <c r="C22">
-        <v>3</v>
+      <c r="C22" s="1">
+        <v>7</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5542,8 +5542,8 @@
       <c r="B23">
         <v>90</v>
       </c>
-      <c r="C23">
-        <v>3</v>
+      <c r="C23" s="1">
+        <v>7</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -5580,8 +5580,8 @@
       <c r="B24">
         <v>90</v>
       </c>
-      <c r="C24">
-        <v>3</v>
+      <c r="C24" s="1">
+        <v>7</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -5618,8 +5618,8 @@
       <c r="B25">
         <v>50</v>
       </c>
-      <c r="C25">
-        <v>3</v>
+      <c r="C25" s="1">
+        <v>7</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5656,8 +5656,8 @@
       <c r="B26">
         <v>90</v>
       </c>
-      <c r="C26">
-        <v>3</v>
+      <c r="C26" s="1">
+        <v>7</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5694,8 +5694,8 @@
       <c r="B27">
         <v>50</v>
       </c>
-      <c r="C27">
-        <v>3</v>
+      <c r="C27" s="1">
+        <v>7</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5732,8 +5732,8 @@
       <c r="B28">
         <v>90</v>
       </c>
-      <c r="C28">
-        <v>3</v>
+      <c r="C28" s="1">
+        <v>7</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5770,8 +5770,8 @@
       <c r="B29">
         <v>130</v>
       </c>
-      <c r="C29">
-        <v>3</v>
+      <c r="C29" s="1">
+        <v>7</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5808,8 +5808,8 @@
       <c r="B30">
         <v>50</v>
       </c>
-      <c r="C30">
-        <v>3</v>
+      <c r="C30" s="1">
+        <v>7</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5846,8 +5846,8 @@
       <c r="B31">
         <v>130</v>
       </c>
-      <c r="C31">
-        <v>3</v>
+      <c r="C31" s="1">
+        <v>7</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5884,8 +5884,8 @@
       <c r="B32">
         <v>130</v>
       </c>
-      <c r="C32">
-        <v>3</v>
+      <c r="C32" s="1">
+        <v>7</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5922,8 +5922,8 @@
       <c r="B33">
         <v>90</v>
       </c>
-      <c r="C33">
-        <v>3</v>
+      <c r="C33" s="1">
+        <v>7</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5960,8 +5960,8 @@
       <c r="B34">
         <v>90</v>
       </c>
-      <c r="C34">
-        <v>3</v>
+      <c r="C34" s="1">
+        <v>7</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5998,8 +5998,8 @@
       <c r="B35">
         <v>50</v>
       </c>
-      <c r="C35">
-        <v>3</v>
+      <c r="C35" s="1">
+        <v>7</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -6036,8 +6036,8 @@
       <c r="B36">
         <v>50</v>
       </c>
-      <c r="C36">
-        <v>3</v>
+      <c r="C36" s="1">
+        <v>7</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -6074,8 +6074,8 @@
       <c r="B37">
         <v>130</v>
       </c>
-      <c r="C37">
-        <v>3</v>
+      <c r="C37" s="1">
+        <v>7</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -6112,8 +6112,8 @@
       <c r="B38">
         <v>90</v>
       </c>
-      <c r="C38">
-        <v>3</v>
+      <c r="C38" s="1">
+        <v>7</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -6150,8 +6150,8 @@
       <c r="B39">
         <v>50</v>
       </c>
-      <c r="C39">
-        <v>3</v>
+      <c r="C39" s="1">
+        <v>7</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6188,8 +6188,8 @@
       <c r="B40">
         <v>130</v>
       </c>
-      <c r="C40">
-        <v>3</v>
+      <c r="C40" s="1">
+        <v>7</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6226,8 +6226,8 @@
       <c r="B41">
         <v>90</v>
       </c>
-      <c r="C41">
-        <v>3</v>
+      <c r="C41" s="1">
+        <v>7</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6264,8 +6264,8 @@
       <c r="B42">
         <v>50</v>
       </c>
-      <c r="C42">
-        <v>3</v>
+      <c r="C42" s="1">
+        <v>7</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6302,8 +6302,8 @@
       <c r="B43">
         <v>130</v>
       </c>
-      <c r="C43">
-        <v>3</v>
+      <c r="C43" s="1">
+        <v>7</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6340,8 +6340,8 @@
       <c r="B44">
         <v>130</v>
       </c>
-      <c r="C44">
-        <v>3</v>
+      <c r="C44" s="1">
+        <v>7</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6378,8 +6378,8 @@
       <c r="B45">
         <v>50</v>
       </c>
-      <c r="C45">
-        <v>3</v>
+      <c r="C45" s="1">
+        <v>7</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6416,8 +6416,8 @@
       <c r="B46">
         <v>90</v>
       </c>
-      <c r="C46">
-        <v>3</v>
+      <c r="C46" s="1">
+        <v>7</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6454,8 +6454,8 @@
       <c r="B47">
         <v>130</v>
       </c>
-      <c r="C47">
-        <v>3</v>
+      <c r="C47" s="1">
+        <v>7</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6492,8 +6492,8 @@
       <c r="B48">
         <v>130</v>
       </c>
-      <c r="C48">
-        <v>3</v>
+      <c r="C48" s="1">
+        <v>7</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6530,8 +6530,8 @@
       <c r="B49">
         <v>130</v>
       </c>
-      <c r="C49">
-        <v>3</v>
+      <c r="C49" s="1">
+        <v>7</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6568,8 +6568,8 @@
       <c r="B50">
         <v>50</v>
       </c>
-      <c r="C50">
-        <v>3</v>
+      <c r="C50" s="1">
+        <v>7</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6606,8 +6606,8 @@
       <c r="B51">
         <v>90</v>
       </c>
-      <c r="C51">
-        <v>3</v>
+      <c r="C51" s="1">
+        <v>7</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6644,8 +6644,8 @@
       <c r="B52">
         <v>50</v>
       </c>
-      <c r="C52">
-        <v>3</v>
+      <c r="C52" s="1">
+        <v>7</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6682,8 +6682,8 @@
       <c r="B53">
         <v>90</v>
       </c>
-      <c r="C53">
-        <v>3</v>
+      <c r="C53" s="1">
+        <v>7</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -6720,8 +6720,8 @@
       <c r="B54">
         <v>50</v>
       </c>
-      <c r="C54">
-        <v>3</v>
+      <c r="C54" s="1">
+        <v>7</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -6758,8 +6758,8 @@
       <c r="B55">
         <v>90</v>
       </c>
-      <c r="C55">
-        <v>3</v>
+      <c r="C55" s="1">
+        <v>7</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -6796,8 +6796,8 @@
       <c r="B56">
         <v>130</v>
       </c>
-      <c r="C56">
-        <v>3</v>
+      <c r="C56" s="1">
+        <v>7</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -6834,8 +6834,8 @@
       <c r="B57">
         <v>90</v>
       </c>
-      <c r="C57">
-        <v>3</v>
+      <c r="C57" s="1">
+        <v>7</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -6872,8 +6872,8 @@
       <c r="B58">
         <v>90</v>
       </c>
-      <c r="C58">
-        <v>3</v>
+      <c r="C58" s="1">
+        <v>7</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -6910,8 +6910,8 @@
       <c r="B59">
         <v>90</v>
       </c>
-      <c r="C59">
-        <v>3</v>
+      <c r="C59" s="1">
+        <v>7</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -6948,8 +6948,8 @@
       <c r="B60">
         <v>130</v>
       </c>
-      <c r="C60">
-        <v>3</v>
+      <c r="C60" s="1">
+        <v>7</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -6986,8 +6986,8 @@
       <c r="B61">
         <v>50</v>
       </c>
-      <c r="C61">
-        <v>3</v>
+      <c r="C61" s="1">
+        <v>7</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -7024,8 +7024,8 @@
       <c r="B62">
         <v>130</v>
       </c>
-      <c r="C62">
-        <v>3</v>
+      <c r="C62" s="1">
+        <v>7</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -7062,8 +7062,8 @@
       <c r="B63">
         <v>50</v>
       </c>
-      <c r="C63">
-        <v>3</v>
+      <c r="C63" s="1">
+        <v>7</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -7100,8 +7100,8 @@
       <c r="B64">
         <v>50</v>
       </c>
-      <c r="C64">
-        <v>3</v>
+      <c r="C64" s="1">
+        <v>7</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -7138,8 +7138,8 @@
       <c r="B65">
         <v>130</v>
       </c>
-      <c r="C65">
-        <v>3</v>
+      <c r="C65" s="1">
+        <v>7</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -7176,8 +7176,8 @@
       <c r="B66">
         <v>50</v>
       </c>
-      <c r="C66">
-        <v>3</v>
+      <c r="C66" s="1">
+        <v>7</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -7214,8 +7214,8 @@
       <c r="B67">
         <v>50</v>
       </c>
-      <c r="C67">
-        <v>3</v>
+      <c r="C67" s="1">
+        <v>7</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -7252,8 +7252,8 @@
       <c r="B68">
         <v>90</v>
       </c>
-      <c r="C68">
-        <v>3</v>
+      <c r="C68" s="1">
+        <v>7</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -7290,8 +7290,8 @@
       <c r="B69">
         <v>130</v>
       </c>
-      <c r="C69">
-        <v>3</v>
+      <c r="C69" s="1">
+        <v>7</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -7328,8 +7328,8 @@
       <c r="B70">
         <v>90</v>
       </c>
-      <c r="C70">
-        <v>3</v>
+      <c r="C70" s="1">
+        <v>7</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -7366,8 +7366,8 @@
       <c r="B71">
         <v>50</v>
       </c>
-      <c r="C71">
-        <v>3</v>
+      <c r="C71" s="1">
+        <v>7</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -7404,8 +7404,8 @@
       <c r="B72">
         <v>50</v>
       </c>
-      <c r="C72">
-        <v>3</v>
+      <c r="C72" s="1">
+        <v>7</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -7442,8 +7442,8 @@
       <c r="B73">
         <v>90</v>
       </c>
-      <c r="C73">
-        <v>3</v>
+      <c r="C73" s="1">
+        <v>7</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -7480,8 +7480,8 @@
       <c r="B74">
         <v>130</v>
       </c>
-      <c r="C74">
-        <v>3</v>
+      <c r="C74" s="1">
+        <v>7</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -7518,8 +7518,8 @@
       <c r="B75">
         <v>90</v>
       </c>
-      <c r="C75">
-        <v>3</v>
+      <c r="C75" s="1">
+        <v>7</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -7556,8 +7556,8 @@
       <c r="B76">
         <v>50</v>
       </c>
-      <c r="C76">
-        <v>3</v>
+      <c r="C76" s="1">
+        <v>7</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -7594,8 +7594,8 @@
       <c r="B77">
         <v>90</v>
       </c>
-      <c r="C77">
-        <v>3</v>
+      <c r="C77" s="1">
+        <v>7</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -7632,8 +7632,8 @@
       <c r="B78">
         <v>130</v>
       </c>
-      <c r="C78">
-        <v>3</v>
+      <c r="C78" s="1">
+        <v>7</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -7670,8 +7670,8 @@
       <c r="B79">
         <v>90</v>
       </c>
-      <c r="C79">
-        <v>3</v>
+      <c r="C79" s="1">
+        <v>7</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -7708,8 +7708,8 @@
       <c r="B80">
         <v>50</v>
       </c>
-      <c r="C80">
-        <v>3</v>
+      <c r="C80" s="1">
+        <v>7</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -7746,8 +7746,8 @@
       <c r="B81">
         <v>130</v>
       </c>
-      <c r="C81">
-        <v>3</v>
+      <c r="C81" s="1">
+        <v>7</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -7784,8 +7784,8 @@
       <c r="B82">
         <v>50</v>
       </c>
-      <c r="C82">
-        <v>3</v>
+      <c r="C82" s="1">
+        <v>7</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -7822,8 +7822,8 @@
       <c r="B83">
         <v>130</v>
       </c>
-      <c r="C83">
-        <v>3</v>
+      <c r="C83" s="1">
+        <v>7</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -7860,8 +7860,8 @@
       <c r="B84">
         <v>130</v>
       </c>
-      <c r="C84">
-        <v>3</v>
+      <c r="C84" s="1">
+        <v>7</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -7898,8 +7898,8 @@
       <c r="B85" s="13">
         <v>90</v>
       </c>
-      <c r="C85" s="13">
-        <v>3</v>
+      <c r="C85" s="1">
+        <v>7</v>
       </c>
       <c r="D85" s="13">
         <v>0</v>
@@ -7937,7 +7937,7 @@
         <v>90</v>
       </c>
       <c r="C86" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -7975,7 +7975,7 @@
         <v>130</v>
       </c>
       <c r="C87" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -8013,7 +8013,7 @@
         <v>50</v>
       </c>
       <c r="C88" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
@@ -8051,7 +8051,7 @@
         <v>50</v>
       </c>
       <c r="C89" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -8089,7 +8089,7 @@
         <v>130</v>
       </c>
       <c r="C90" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -8127,7 +8127,7 @@
         <v>50</v>
       </c>
       <c r="C91" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
@@ -8165,7 +8165,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -8203,7 +8203,7 @@
         <v>130</v>
       </c>
       <c r="C93" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -8240,8 +8240,8 @@
       <c r="B94" s="20">
         <v>90</v>
       </c>
-      <c r="C94" s="19">
-        <v>3</v>
+      <c r="C94" s="1">
+        <v>7</v>
       </c>
       <c r="D94" s="19">
         <v>1</v>
@@ -8278,8 +8278,8 @@
       <c r="B95">
         <v>130</v>
       </c>
-      <c r="C95">
-        <v>3</v>
+      <c r="C95" s="1">
+        <v>7</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -8316,8 +8316,8 @@
       <c r="B96">
         <v>90</v>
       </c>
-      <c r="C96">
-        <v>3</v>
+      <c r="C96" s="1">
+        <v>7</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -8354,8 +8354,8 @@
       <c r="B97">
         <v>50</v>
       </c>
-      <c r="C97">
-        <v>3</v>
+      <c r="C97" s="1">
+        <v>7</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -8392,8 +8392,8 @@
       <c r="B98">
         <v>130</v>
       </c>
-      <c r="C98">
-        <v>3</v>
+      <c r="C98" s="1">
+        <v>7</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -8430,8 +8430,8 @@
       <c r="B99">
         <v>90</v>
       </c>
-      <c r="C99">
-        <v>3</v>
+      <c r="C99" s="1">
+        <v>7</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -8468,8 +8468,8 @@
       <c r="B100">
         <v>90</v>
       </c>
-      <c r="C100">
-        <v>3</v>
+      <c r="C100" s="1">
+        <v>7</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -8506,8 +8506,8 @@
       <c r="B101">
         <v>90</v>
       </c>
-      <c r="C101">
-        <v>3</v>
+      <c r="C101" s="1">
+        <v>7</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -8544,8 +8544,8 @@
       <c r="B102">
         <v>130</v>
       </c>
-      <c r="C102">
-        <v>3</v>
+      <c r="C102" s="1">
+        <v>7</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -8582,8 +8582,8 @@
       <c r="B103">
         <v>50</v>
       </c>
-      <c r="C103">
-        <v>3</v>
+      <c r="C103" s="1">
+        <v>7</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -8620,8 +8620,8 @@
       <c r="B104">
         <v>130</v>
       </c>
-      <c r="C104">
-        <v>3</v>
+      <c r="C104" s="1">
+        <v>7</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -8658,8 +8658,8 @@
       <c r="B105">
         <v>90</v>
       </c>
-      <c r="C105">
-        <v>3</v>
+      <c r="C105" s="1">
+        <v>7</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -8696,8 +8696,8 @@
       <c r="B106">
         <v>50</v>
       </c>
-      <c r="C106">
-        <v>3</v>
+      <c r="C106" s="1">
+        <v>7</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -8734,8 +8734,8 @@
       <c r="B107">
         <v>50</v>
       </c>
-      <c r="C107">
-        <v>3</v>
+      <c r="C107" s="1">
+        <v>7</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -8772,8 +8772,8 @@
       <c r="B108">
         <v>130</v>
       </c>
-      <c r="C108">
-        <v>3</v>
+      <c r="C108" s="1">
+        <v>7</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -8810,8 +8810,8 @@
       <c r="B109">
         <v>50</v>
       </c>
-      <c r="C109">
-        <v>3</v>
+      <c r="C109" s="1">
+        <v>7</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -8848,8 +8848,8 @@
       <c r="B110">
         <v>90</v>
       </c>
-      <c r="C110">
-        <v>3</v>
+      <c r="C110" s="1">
+        <v>7</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -8886,8 +8886,8 @@
       <c r="B111">
         <v>50</v>
       </c>
-      <c r="C111">
-        <v>3</v>
+      <c r="C111" s="1">
+        <v>7</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -8924,8 +8924,8 @@
       <c r="B112">
         <v>50</v>
       </c>
-      <c r="C112">
-        <v>3</v>
+      <c r="C112" s="1">
+        <v>7</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -8962,8 +8962,8 @@
       <c r="B113">
         <v>130</v>
       </c>
-      <c r="C113">
-        <v>3</v>
+      <c r="C113" s="1">
+        <v>7</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -9000,8 +9000,8 @@
       <c r="B114">
         <v>90</v>
       </c>
-      <c r="C114">
-        <v>3</v>
+      <c r="C114" s="1">
+        <v>7</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -9038,8 +9038,8 @@
       <c r="B115">
         <v>130</v>
       </c>
-      <c r="C115">
-        <v>3</v>
+      <c r="C115" s="1">
+        <v>7</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -9076,8 +9076,8 @@
       <c r="B116">
         <v>50</v>
       </c>
-      <c r="C116">
-        <v>3</v>
+      <c r="C116" s="1">
+        <v>7</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -9114,8 +9114,8 @@
       <c r="B117">
         <v>130</v>
       </c>
-      <c r="C117">
-        <v>3</v>
+      <c r="C117" s="1">
+        <v>7</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -9152,8 +9152,8 @@
       <c r="B118">
         <v>130</v>
       </c>
-      <c r="C118">
-        <v>3</v>
+      <c r="C118" s="1">
+        <v>7</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -9190,8 +9190,8 @@
       <c r="B119">
         <v>90</v>
       </c>
-      <c r="C119">
-        <v>3</v>
+      <c r="C119" s="1">
+        <v>7</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -9228,8 +9228,8 @@
       <c r="B120">
         <v>130</v>
       </c>
-      <c r="C120">
-        <v>3</v>
+      <c r="C120" s="1">
+        <v>7</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -9266,8 +9266,8 @@
       <c r="B121">
         <v>90</v>
       </c>
-      <c r="C121">
-        <v>3</v>
+      <c r="C121" s="1">
+        <v>7</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -9304,8 +9304,8 @@
       <c r="B122">
         <v>90</v>
       </c>
-      <c r="C122">
-        <v>3</v>
+      <c r="C122" s="1">
+        <v>7</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -9342,8 +9342,8 @@
       <c r="B123">
         <v>50</v>
       </c>
-      <c r="C123">
-        <v>3</v>
+      <c r="C123" s="1">
+        <v>7</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -9380,8 +9380,8 @@
       <c r="B124">
         <v>50</v>
       </c>
-      <c r="C124">
-        <v>3</v>
+      <c r="C124" s="1">
+        <v>7</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -9418,8 +9418,8 @@
       <c r="B125">
         <v>50</v>
       </c>
-      <c r="C125">
-        <v>3</v>
+      <c r="C125" s="1">
+        <v>7</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -9456,8 +9456,8 @@
       <c r="B126">
         <v>130</v>
       </c>
-      <c r="C126">
-        <v>3</v>
+      <c r="C126" s="1">
+        <v>7</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -9494,8 +9494,8 @@
       <c r="B127">
         <v>50</v>
       </c>
-      <c r="C127">
-        <v>3</v>
+      <c r="C127" s="1">
+        <v>7</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -9532,8 +9532,8 @@
       <c r="B128">
         <v>50</v>
       </c>
-      <c r="C128">
-        <v>3</v>
+      <c r="C128" s="1">
+        <v>7</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -9570,8 +9570,8 @@
       <c r="B129">
         <v>130</v>
       </c>
-      <c r="C129">
-        <v>3</v>
+      <c r="C129" s="1">
+        <v>7</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -9608,8 +9608,8 @@
       <c r="B130">
         <v>90</v>
       </c>
-      <c r="C130">
-        <v>3</v>
+      <c r="C130" s="1">
+        <v>7</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -9646,8 +9646,8 @@
       <c r="B131">
         <v>130</v>
       </c>
-      <c r="C131">
-        <v>3</v>
+      <c r="C131" s="1">
+        <v>7</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -9684,8 +9684,8 @@
       <c r="B132">
         <v>90</v>
       </c>
-      <c r="C132">
-        <v>3</v>
+      <c r="C132" s="1">
+        <v>7</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -9722,8 +9722,8 @@
       <c r="B133">
         <v>90</v>
       </c>
-      <c r="C133">
-        <v>3</v>
+      <c r="C133" s="1">
+        <v>7</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -9760,8 +9760,8 @@
       <c r="B134">
         <v>90</v>
       </c>
-      <c r="C134">
-        <v>3</v>
+      <c r="C134" s="1">
+        <v>7</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -9798,8 +9798,8 @@
       <c r="B135">
         <v>130</v>
       </c>
-      <c r="C135">
-        <v>3</v>
+      <c r="C135" s="1">
+        <v>7</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -9836,8 +9836,8 @@
       <c r="B136">
         <v>90</v>
       </c>
-      <c r="C136">
-        <v>3</v>
+      <c r="C136" s="1">
+        <v>7</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -9874,8 +9874,8 @@
       <c r="B137">
         <v>50</v>
       </c>
-      <c r="C137">
-        <v>3</v>
+      <c r="C137" s="1">
+        <v>7</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -9912,8 +9912,8 @@
       <c r="B138">
         <v>50</v>
       </c>
-      <c r="C138">
-        <v>3</v>
+      <c r="C138" s="1">
+        <v>7</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -9950,8 +9950,8 @@
       <c r="B139">
         <v>130</v>
       </c>
-      <c r="C139">
-        <v>3</v>
+      <c r="C139" s="1">
+        <v>7</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -9988,8 +9988,8 @@
       <c r="B140">
         <v>90</v>
       </c>
-      <c r="C140">
-        <v>3</v>
+      <c r="C140" s="1">
+        <v>7</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -10026,8 +10026,8 @@
       <c r="B141">
         <v>50</v>
       </c>
-      <c r="C141">
-        <v>3</v>
+      <c r="C141" s="1">
+        <v>7</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -10064,8 +10064,8 @@
       <c r="B142">
         <v>50</v>
       </c>
-      <c r="C142">
-        <v>3</v>
+      <c r="C142" s="1">
+        <v>7</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -10102,8 +10102,8 @@
       <c r="B143">
         <v>50</v>
       </c>
-      <c r="C143">
-        <v>3</v>
+      <c r="C143" s="1">
+        <v>7</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -10140,8 +10140,8 @@
       <c r="B144">
         <v>130</v>
       </c>
-      <c r="C144">
-        <v>3</v>
+      <c r="C144" s="1">
+        <v>7</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -10178,8 +10178,8 @@
       <c r="B145">
         <v>50</v>
       </c>
-      <c r="C145">
-        <v>3</v>
+      <c r="C145" s="1">
+        <v>7</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -10216,8 +10216,8 @@
       <c r="B146">
         <v>90</v>
       </c>
-      <c r="C146">
-        <v>3</v>
+      <c r="C146" s="1">
+        <v>7</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -10254,8 +10254,8 @@
       <c r="B147">
         <v>130</v>
       </c>
-      <c r="C147">
-        <v>3</v>
+      <c r="C147" s="1">
+        <v>7</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -10292,8 +10292,8 @@
       <c r="B148">
         <v>130</v>
       </c>
-      <c r="C148">
-        <v>3</v>
+      <c r="C148" s="1">
+        <v>7</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -10330,8 +10330,8 @@
       <c r="B149">
         <v>90</v>
       </c>
-      <c r="C149">
-        <v>3</v>
+      <c r="C149" s="1">
+        <v>7</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -10368,8 +10368,8 @@
       <c r="B150">
         <v>130</v>
       </c>
-      <c r="C150">
-        <v>3</v>
+      <c r="C150" s="1">
+        <v>7</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -10406,8 +10406,8 @@
       <c r="B151">
         <v>90</v>
       </c>
-      <c r="C151">
-        <v>3</v>
+      <c r="C151" s="1">
+        <v>7</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -10444,8 +10444,8 @@
       <c r="B152">
         <v>130</v>
       </c>
-      <c r="C152">
-        <v>3</v>
+      <c r="C152" s="1">
+        <v>7</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -10482,8 +10482,8 @@
       <c r="B153">
         <v>90</v>
       </c>
-      <c r="C153">
-        <v>3</v>
+      <c r="C153" s="1">
+        <v>7</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -10520,8 +10520,8 @@
       <c r="B154">
         <v>50</v>
       </c>
-      <c r="C154">
-        <v>3</v>
+      <c r="C154" s="1">
+        <v>7</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -10558,8 +10558,8 @@
       <c r="B155">
         <v>90</v>
       </c>
-      <c r="C155">
-        <v>3</v>
+      <c r="C155" s="1">
+        <v>7</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -10596,8 +10596,8 @@
       <c r="B156">
         <v>130</v>
       </c>
-      <c r="C156">
-        <v>3</v>
+      <c r="C156" s="1">
+        <v>7</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -10634,8 +10634,8 @@
       <c r="B157">
         <v>90</v>
       </c>
-      <c r="C157">
-        <v>3</v>
+      <c r="C157" s="1">
+        <v>7</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -10672,8 +10672,8 @@
       <c r="B158">
         <v>130</v>
       </c>
-      <c r="C158">
-        <v>3</v>
+      <c r="C158" s="1">
+        <v>7</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -10710,8 +10710,8 @@
       <c r="B159">
         <v>50</v>
       </c>
-      <c r="C159">
-        <v>3</v>
+      <c r="C159" s="1">
+        <v>7</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -10748,8 +10748,8 @@
       <c r="B160">
         <v>90</v>
       </c>
-      <c r="C160">
-        <v>3</v>
+      <c r="C160" s="1">
+        <v>7</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -10786,8 +10786,8 @@
       <c r="B161">
         <v>50</v>
       </c>
-      <c r="C161">
-        <v>3</v>
+      <c r="C161" s="1">
+        <v>7</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -10824,8 +10824,8 @@
       <c r="B162">
         <v>50</v>
       </c>
-      <c r="C162">
-        <v>3</v>
+      <c r="C162" s="1">
+        <v>7</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -10862,8 +10862,8 @@
       <c r="B163">
         <v>130</v>
       </c>
-      <c r="C163">
-        <v>3</v>
+      <c r="C163" s="1">
+        <v>7</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -10900,8 +10900,8 @@
       <c r="B164">
         <v>50</v>
       </c>
-      <c r="C164">
-        <v>3</v>
+      <c r="C164" s="1">
+        <v>7</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -10938,8 +10938,8 @@
       <c r="B165">
         <v>130</v>
       </c>
-      <c r="C165">
-        <v>3</v>
+      <c r="C165" s="1">
+        <v>7</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -10976,8 +10976,8 @@
       <c r="B166">
         <v>90</v>
       </c>
-      <c r="C166">
-        <v>3</v>
+      <c r="C166" s="1">
+        <v>7</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -11014,8 +11014,8 @@
       <c r="B167">
         <v>90</v>
       </c>
-      <c r="C167">
-        <v>3</v>
+      <c r="C167" s="1">
+        <v>7</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -11052,8 +11052,8 @@
       <c r="B168">
         <v>130</v>
       </c>
-      <c r="C168">
-        <v>3</v>
+      <c r="C168" s="1">
+        <v>7</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -11090,8 +11090,8 @@
       <c r="B169" s="13">
         <v>50</v>
       </c>
-      <c r="C169" s="13">
-        <v>3</v>
+      <c r="C169" s="1">
+        <v>7</v>
       </c>
       <c r="D169" s="13">
         <v>0</v>
@@ -11129,7 +11129,7 @@
         <v>130</v>
       </c>
       <c r="C170" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -11167,7 +11167,7 @@
         <v>50</v>
       </c>
       <c r="C171" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         <v>90</v>
       </c>
       <c r="C172" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -11243,7 +11243,7 @@
         <v>50</v>
       </c>
       <c r="C173" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
@@ -11281,7 +11281,7 @@
         <v>130</v>
       </c>
       <c r="C174" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
@@ -11319,7 +11319,7 @@
         <v>90</v>
       </c>
       <c r="C175" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
@@ -11357,7 +11357,7 @@
         <v>130</v>
       </c>
       <c r="C176" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
@@ -11395,7 +11395,7 @@
         <v>90</v>
       </c>
       <c r="C177" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
@@ -11432,8 +11432,8 @@
       <c r="B178" s="20">
         <v>50</v>
       </c>
-      <c r="C178" s="19">
-        <v>3</v>
+      <c r="C178" s="1">
+        <v>7</v>
       </c>
       <c r="D178" s="19">
         <v>1</v>
@@ -11470,8 +11470,8 @@
       <c r="B179">
         <v>130</v>
       </c>
-      <c r="C179">
-        <v>3</v>
+      <c r="C179" s="1">
+        <v>7</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -11508,8 +11508,8 @@
       <c r="B180">
         <v>50</v>
       </c>
-      <c r="C180">
-        <v>3</v>
+      <c r="C180" s="1">
+        <v>7</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -11546,8 +11546,8 @@
       <c r="B181">
         <v>130</v>
       </c>
-      <c r="C181">
-        <v>3</v>
+      <c r="C181" s="1">
+        <v>7</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -11584,8 +11584,8 @@
       <c r="B182">
         <v>90</v>
       </c>
-      <c r="C182">
-        <v>3</v>
+      <c r="C182" s="1">
+        <v>7</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -11622,8 +11622,8 @@
       <c r="B183">
         <v>130</v>
       </c>
-      <c r="C183">
-        <v>3</v>
+      <c r="C183" s="1">
+        <v>7</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -11660,8 +11660,8 @@
       <c r="B184">
         <v>90</v>
       </c>
-      <c r="C184">
-        <v>3</v>
+      <c r="C184" s="1">
+        <v>7</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -11698,8 +11698,8 @@
       <c r="B185">
         <v>50</v>
       </c>
-      <c r="C185">
-        <v>3</v>
+      <c r="C185" s="1">
+        <v>7</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -11736,8 +11736,8 @@
       <c r="B186">
         <v>50</v>
       </c>
-      <c r="C186">
-        <v>3</v>
+      <c r="C186" s="1">
+        <v>7</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -11774,8 +11774,8 @@
       <c r="B187">
         <v>90</v>
       </c>
-      <c r="C187">
-        <v>3</v>
+      <c r="C187" s="1">
+        <v>7</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -11812,8 +11812,8 @@
       <c r="B188">
         <v>90</v>
       </c>
-      <c r="C188">
-        <v>3</v>
+      <c r="C188" s="1">
+        <v>7</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -11850,8 +11850,8 @@
       <c r="B189">
         <v>50</v>
       </c>
-      <c r="C189">
-        <v>3</v>
+      <c r="C189" s="1">
+        <v>7</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -11888,8 +11888,8 @@
       <c r="B190">
         <v>50</v>
       </c>
-      <c r="C190">
-        <v>3</v>
+      <c r="C190" s="1">
+        <v>7</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -11926,8 +11926,8 @@
       <c r="B191">
         <v>90</v>
       </c>
-      <c r="C191">
-        <v>3</v>
+      <c r="C191" s="1">
+        <v>7</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -11964,8 +11964,8 @@
       <c r="B192">
         <v>130</v>
       </c>
-      <c r="C192">
-        <v>3</v>
+      <c r="C192" s="1">
+        <v>7</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -12002,8 +12002,8 @@
       <c r="B193">
         <v>130</v>
       </c>
-      <c r="C193">
-        <v>3</v>
+      <c r="C193" s="1">
+        <v>7</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -12040,8 +12040,8 @@
       <c r="B194">
         <v>90</v>
       </c>
-      <c r="C194">
-        <v>3</v>
+      <c r="C194" s="1">
+        <v>7</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -12078,8 +12078,8 @@
       <c r="B195">
         <v>90</v>
       </c>
-      <c r="C195">
-        <v>3</v>
+      <c r="C195" s="1">
+        <v>7</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -12116,8 +12116,8 @@
       <c r="B196">
         <v>130</v>
       </c>
-      <c r="C196">
-        <v>3</v>
+      <c r="C196" s="1">
+        <v>7</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -12154,8 +12154,8 @@
       <c r="B197">
         <v>90</v>
       </c>
-      <c r="C197">
-        <v>3</v>
+      <c r="C197" s="1">
+        <v>7</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -12192,8 +12192,8 @@
       <c r="B198">
         <v>90</v>
       </c>
-      <c r="C198">
-        <v>3</v>
+      <c r="C198" s="1">
+        <v>7</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -12230,8 +12230,8 @@
       <c r="B199">
         <v>50</v>
       </c>
-      <c r="C199">
-        <v>3</v>
+      <c r="C199" s="1">
+        <v>7</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -12268,8 +12268,8 @@
       <c r="B200">
         <v>50</v>
       </c>
-      <c r="C200">
-        <v>3</v>
+      <c r="C200" s="1">
+        <v>7</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -12306,8 +12306,8 @@
       <c r="B201">
         <v>130</v>
       </c>
-      <c r="C201">
-        <v>3</v>
+      <c r="C201" s="1">
+        <v>7</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -12344,8 +12344,8 @@
       <c r="B202">
         <v>130</v>
       </c>
-      <c r="C202">
-        <v>3</v>
+      <c r="C202" s="1">
+        <v>7</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -12382,8 +12382,8 @@
       <c r="B203">
         <v>50</v>
       </c>
-      <c r="C203">
-        <v>3</v>
+      <c r="C203" s="1">
+        <v>7</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -12420,8 +12420,8 @@
       <c r="B204">
         <v>90</v>
       </c>
-      <c r="C204">
-        <v>3</v>
+      <c r="C204" s="1">
+        <v>7</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -12458,8 +12458,8 @@
       <c r="B205">
         <v>50</v>
       </c>
-      <c r="C205">
-        <v>3</v>
+      <c r="C205" s="1">
+        <v>7</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -12496,8 +12496,8 @@
       <c r="B206">
         <v>130</v>
       </c>
-      <c r="C206">
-        <v>3</v>
+      <c r="C206" s="1">
+        <v>7</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -12534,8 +12534,8 @@
       <c r="B207">
         <v>130</v>
       </c>
-      <c r="C207">
-        <v>3</v>
+      <c r="C207" s="1">
+        <v>7</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -12572,8 +12572,8 @@
       <c r="B208">
         <v>50</v>
       </c>
-      <c r="C208">
-        <v>3</v>
+      <c r="C208" s="1">
+        <v>7</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -12610,8 +12610,8 @@
       <c r="B209">
         <v>50</v>
       </c>
-      <c r="C209">
-        <v>3</v>
+      <c r="C209" s="1">
+        <v>7</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -12648,8 +12648,8 @@
       <c r="B210">
         <v>50</v>
       </c>
-      <c r="C210">
-        <v>3</v>
+      <c r="C210" s="1">
+        <v>7</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -12686,8 +12686,8 @@
       <c r="B211">
         <v>130</v>
       </c>
-      <c r="C211">
-        <v>3</v>
+      <c r="C211" s="1">
+        <v>7</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -12724,8 +12724,8 @@
       <c r="B212">
         <v>130</v>
       </c>
-      <c r="C212">
-        <v>3</v>
+      <c r="C212" s="1">
+        <v>7</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -12762,8 +12762,8 @@
       <c r="B213">
         <v>90</v>
       </c>
-      <c r="C213">
-        <v>3</v>
+      <c r="C213" s="1">
+        <v>7</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -12800,8 +12800,8 @@
       <c r="B214">
         <v>50</v>
       </c>
-      <c r="C214">
-        <v>3</v>
+      <c r="C214" s="1">
+        <v>7</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -12838,8 +12838,8 @@
       <c r="B215">
         <v>50</v>
       </c>
-      <c r="C215">
-        <v>3</v>
+      <c r="C215" s="1">
+        <v>7</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -12876,8 +12876,8 @@
       <c r="B216">
         <v>130</v>
       </c>
-      <c r="C216">
-        <v>3</v>
+      <c r="C216" s="1">
+        <v>7</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -12914,8 +12914,8 @@
       <c r="B217">
         <v>90</v>
       </c>
-      <c r="C217">
-        <v>3</v>
+      <c r="C217" s="1">
+        <v>7</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -12952,8 +12952,8 @@
       <c r="B218">
         <v>130</v>
       </c>
-      <c r="C218">
-        <v>3</v>
+      <c r="C218" s="1">
+        <v>7</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -12990,8 +12990,8 @@
       <c r="B219">
         <v>130</v>
       </c>
-      <c r="C219">
-        <v>3</v>
+      <c r="C219" s="1">
+        <v>7</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -13028,8 +13028,8 @@
       <c r="B220">
         <v>90</v>
       </c>
-      <c r="C220">
-        <v>3</v>
+      <c r="C220" s="1">
+        <v>7</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -13066,8 +13066,8 @@
       <c r="B221">
         <v>90</v>
       </c>
-      <c r="C221">
-        <v>3</v>
+      <c r="C221" s="1">
+        <v>7</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -13104,8 +13104,8 @@
       <c r="B222">
         <v>50</v>
       </c>
-      <c r="C222">
-        <v>3</v>
+      <c r="C222" s="1">
+        <v>7</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -13142,8 +13142,8 @@
       <c r="B223">
         <v>90</v>
       </c>
-      <c r="C223">
-        <v>3</v>
+      <c r="C223" s="1">
+        <v>7</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -13180,8 +13180,8 @@
       <c r="B224">
         <v>130</v>
       </c>
-      <c r="C224">
-        <v>3</v>
+      <c r="C224" s="1">
+        <v>7</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -13218,8 +13218,8 @@
       <c r="B225">
         <v>90</v>
       </c>
-      <c r="C225">
-        <v>3</v>
+      <c r="C225" s="1">
+        <v>7</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -13256,8 +13256,8 @@
       <c r="B226">
         <v>90</v>
       </c>
-      <c r="C226">
-        <v>3</v>
+      <c r="C226" s="1">
+        <v>7</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -13294,8 +13294,8 @@
       <c r="B227">
         <v>90</v>
       </c>
-      <c r="C227">
-        <v>3</v>
+      <c r="C227" s="1">
+        <v>7</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -13332,8 +13332,8 @@
       <c r="B228">
         <v>50</v>
       </c>
-      <c r="C228">
-        <v>3</v>
+      <c r="C228" s="1">
+        <v>7</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -13370,8 +13370,8 @@
       <c r="B229">
         <v>130</v>
       </c>
-      <c r="C229">
-        <v>3</v>
+      <c r="C229" s="1">
+        <v>7</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -13408,8 +13408,8 @@
       <c r="B230">
         <v>50</v>
       </c>
-      <c r="C230">
-        <v>3</v>
+      <c r="C230" s="1">
+        <v>7</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -13446,8 +13446,8 @@
       <c r="B231">
         <v>130</v>
       </c>
-      <c r="C231">
-        <v>3</v>
+      <c r="C231" s="1">
+        <v>7</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -13484,8 +13484,8 @@
       <c r="B232">
         <v>50</v>
       </c>
-      <c r="C232">
-        <v>3</v>
+      <c r="C232" s="1">
+        <v>7</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -13522,8 +13522,8 @@
       <c r="B233">
         <v>130</v>
       </c>
-      <c r="C233">
-        <v>3</v>
+      <c r="C233" s="1">
+        <v>7</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -13560,8 +13560,8 @@
       <c r="B234">
         <v>90</v>
       </c>
-      <c r="C234">
-        <v>3</v>
+      <c r="C234" s="1">
+        <v>7</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -13598,8 +13598,8 @@
       <c r="B235">
         <v>130</v>
       </c>
-      <c r="C235">
-        <v>3</v>
+      <c r="C235" s="1">
+        <v>7</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -13636,8 +13636,8 @@
       <c r="B236">
         <v>50</v>
       </c>
-      <c r="C236">
-        <v>3</v>
+      <c r="C236" s="1">
+        <v>7</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -13674,8 +13674,8 @@
       <c r="B237">
         <v>90</v>
       </c>
-      <c r="C237">
-        <v>3</v>
+      <c r="C237" s="1">
+        <v>7</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -13712,8 +13712,8 @@
       <c r="B238">
         <v>50</v>
       </c>
-      <c r="C238">
-        <v>3</v>
+      <c r="C238" s="1">
+        <v>7</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -13750,8 +13750,8 @@
       <c r="B239">
         <v>90</v>
       </c>
-      <c r="C239">
-        <v>3</v>
+      <c r="C239" s="1">
+        <v>7</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -13788,8 +13788,8 @@
       <c r="B240">
         <v>130</v>
       </c>
-      <c r="C240">
-        <v>3</v>
+      <c r="C240" s="1">
+        <v>7</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -13826,8 +13826,8 @@
       <c r="B241">
         <v>90</v>
       </c>
-      <c r="C241">
-        <v>3</v>
+      <c r="C241" s="1">
+        <v>7</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -13864,8 +13864,8 @@
       <c r="B242">
         <v>130</v>
       </c>
-      <c r="C242">
-        <v>3</v>
+      <c r="C242" s="1">
+        <v>7</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -13902,8 +13902,8 @@
       <c r="B243">
         <v>130</v>
       </c>
-      <c r="C243">
-        <v>3</v>
+      <c r="C243" s="1">
+        <v>7</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -13940,8 +13940,8 @@
       <c r="B244">
         <v>50</v>
       </c>
-      <c r="C244">
-        <v>3</v>
+      <c r="C244" s="1">
+        <v>7</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -13978,8 +13978,8 @@
       <c r="B245">
         <v>90</v>
       </c>
-      <c r="C245">
-        <v>3</v>
+      <c r="C245" s="1">
+        <v>7</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -14016,8 +14016,8 @@
       <c r="B246">
         <v>90</v>
       </c>
-      <c r="C246">
-        <v>3</v>
+      <c r="C246" s="1">
+        <v>7</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -14054,8 +14054,8 @@
       <c r="B247">
         <v>90</v>
       </c>
-      <c r="C247">
-        <v>3</v>
+      <c r="C247" s="1">
+        <v>7</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -14092,8 +14092,8 @@
       <c r="B248">
         <v>50</v>
       </c>
-      <c r="C248">
-        <v>3</v>
+      <c r="C248" s="1">
+        <v>7</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -14130,8 +14130,8 @@
       <c r="B249">
         <v>50</v>
       </c>
-      <c r="C249">
-        <v>3</v>
+      <c r="C249" s="1">
+        <v>7</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -14168,8 +14168,8 @@
       <c r="B250">
         <v>50</v>
       </c>
-      <c r="C250">
-        <v>3</v>
+      <c r="C250" s="1">
+        <v>7</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -14206,8 +14206,8 @@
       <c r="B251">
         <v>130</v>
       </c>
-      <c r="C251">
-        <v>3</v>
+      <c r="C251" s="1">
+        <v>7</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -14244,8 +14244,8 @@
       <c r="B252">
         <v>50</v>
       </c>
-      <c r="C252">
-        <v>3</v>
+      <c r="C252" s="1">
+        <v>7</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -14282,8 +14282,8 @@
       <c r="B253" s="13">
         <v>130</v>
       </c>
-      <c r="C253" s="13">
-        <v>3</v>
+      <c r="C253" s="1">
+        <v>7</v>
       </c>
       <c r="D253" s="13">
         <v>0</v>
@@ -14321,7 +14321,7 @@
         <v>90</v>
       </c>
       <c r="C254" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -14359,7 +14359,7 @@
         <v>130</v>
       </c>
       <c r="C255" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D255" s="1">
         <v>1</v>
@@ -14397,7 +14397,7 @@
         <v>50</v>
       </c>
       <c r="C256" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -14435,7 +14435,7 @@
         <v>90</v>
       </c>
       <c r="C257" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -14473,7 +14473,7 @@
         <v>130</v>
       </c>
       <c r="C258" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -14511,7 +14511,7 @@
         <v>50</v>
       </c>
       <c r="C259" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -14549,7 +14549,7 @@
         <v>50</v>
       </c>
       <c r="C260" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -14587,7 +14587,7 @@
         <v>130</v>
       </c>
       <c r="C261" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -14624,8 +14624,8 @@
       <c r="B262" s="20">
         <v>90</v>
       </c>
-      <c r="C262" s="19">
-        <v>3</v>
+      <c r="C262" s="1">
+        <v>7</v>
       </c>
       <c r="D262" s="19">
         <v>1</v>
@@ -14662,8 +14662,8 @@
       <c r="B263">
         <v>50</v>
       </c>
-      <c r="C263">
-        <v>3</v>
+      <c r="C263" s="1">
+        <v>7</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -14700,8 +14700,8 @@
       <c r="B264">
         <v>50</v>
       </c>
-      <c r="C264">
-        <v>3</v>
+      <c r="C264" s="1">
+        <v>7</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -14738,8 +14738,8 @@
       <c r="B265">
         <v>130</v>
       </c>
-      <c r="C265">
-        <v>3</v>
+      <c r="C265" s="1">
+        <v>7</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -14776,8 +14776,8 @@
       <c r="B266">
         <v>50</v>
       </c>
-      <c r="C266">
-        <v>3</v>
+      <c r="C266" s="1">
+        <v>7</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -14814,8 +14814,8 @@
       <c r="B267">
         <v>130</v>
       </c>
-      <c r="C267">
-        <v>3</v>
+      <c r="C267" s="1">
+        <v>7</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -14852,8 +14852,8 @@
       <c r="B268">
         <v>90</v>
       </c>
-      <c r="C268">
-        <v>3</v>
+      <c r="C268" s="1">
+        <v>7</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -14890,8 +14890,8 @@
       <c r="B269">
         <v>90</v>
       </c>
-      <c r="C269">
-        <v>3</v>
+      <c r="C269" s="1">
+        <v>7</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -14928,8 +14928,8 @@
       <c r="B270">
         <v>130</v>
       </c>
-      <c r="C270">
-        <v>3</v>
+      <c r="C270" s="1">
+        <v>7</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -14966,8 +14966,8 @@
       <c r="B271">
         <v>130</v>
       </c>
-      <c r="C271">
-        <v>3</v>
+      <c r="C271" s="1">
+        <v>7</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -15004,8 +15004,8 @@
       <c r="B272">
         <v>50</v>
       </c>
-      <c r="C272">
-        <v>3</v>
+      <c r="C272" s="1">
+        <v>7</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -15042,8 +15042,8 @@
       <c r="B273">
         <v>90</v>
       </c>
-      <c r="C273">
-        <v>3</v>
+      <c r="C273" s="1">
+        <v>7</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -15080,8 +15080,8 @@
       <c r="B274">
         <v>50</v>
       </c>
-      <c r="C274">
-        <v>3</v>
+      <c r="C274" s="1">
+        <v>7</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -15118,8 +15118,8 @@
       <c r="B275">
         <v>90</v>
       </c>
-      <c r="C275">
-        <v>3</v>
+      <c r="C275" s="1">
+        <v>7</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -15156,8 +15156,8 @@
       <c r="B276">
         <v>130</v>
       </c>
-      <c r="C276">
-        <v>3</v>
+      <c r="C276" s="1">
+        <v>7</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -15194,8 +15194,8 @@
       <c r="B277">
         <v>90</v>
       </c>
-      <c r="C277">
-        <v>3</v>
+      <c r="C277" s="1">
+        <v>7</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -15232,8 +15232,8 @@
       <c r="B278" s="18">
         <v>130</v>
       </c>
-      <c r="C278" s="18">
-        <v>3</v>
+      <c r="C278" s="1">
+        <v>7</v>
       </c>
       <c r="D278" s="18">
         <v>0</v>
@@ -15270,8 +15270,8 @@
       <c r="B279" s="18">
         <v>90</v>
       </c>
-      <c r="C279" s="18">
-        <v>3</v>
+      <c r="C279" s="1">
+        <v>7</v>
       </c>
       <c r="D279" s="18">
         <v>0</v>
@@ -15308,8 +15308,8 @@
       <c r="B280" s="18">
         <v>130</v>
       </c>
-      <c r="C280" s="18">
-        <v>3</v>
+      <c r="C280" s="1">
+        <v>7</v>
       </c>
       <c r="D280" s="18">
         <v>0</v>
@@ -15346,8 +15346,8 @@
       <c r="B281" s="18">
         <v>50</v>
       </c>
-      <c r="C281" s="18">
-        <v>3</v>
+      <c r="C281" s="1">
+        <v>7</v>
       </c>
       <c r="D281" s="18">
         <v>0</v>
@@ -15384,8 +15384,8 @@
       <c r="B282" s="18">
         <v>50</v>
       </c>
-      <c r="C282" s="18">
-        <v>3</v>
+      <c r="C282" s="1">
+        <v>7</v>
       </c>
       <c r="D282" s="18">
         <v>0</v>
@@ -15422,8 +15422,8 @@
       <c r="B283" s="18">
         <v>130</v>
       </c>
-      <c r="C283" s="18">
-        <v>3</v>
+      <c r="C283" s="1">
+        <v>7</v>
       </c>
       <c r="D283" s="18">
         <v>0</v>
@@ -15460,8 +15460,8 @@
       <c r="B284" s="18">
         <v>90</v>
       </c>
-      <c r="C284" s="18">
-        <v>3</v>
+      <c r="C284" s="1">
+        <v>7</v>
       </c>
       <c r="D284" s="18">
         <v>0</v>
@@ -15498,8 +15498,8 @@
       <c r="B285" s="18">
         <v>50</v>
       </c>
-      <c r="C285" s="18">
-        <v>3</v>
+      <c r="C285" s="1">
+        <v>7</v>
       </c>
       <c r="D285" s="18">
         <v>0</v>
@@ -15536,8 +15536,8 @@
       <c r="B286" s="18">
         <v>50</v>
       </c>
-      <c r="C286" s="18">
-        <v>3</v>
+      <c r="C286" s="1">
+        <v>7</v>
       </c>
       <c r="D286" s="18">
         <v>0</v>
@@ -15574,8 +15574,8 @@
       <c r="B287" s="18">
         <v>90</v>
       </c>
-      <c r="C287" s="18">
-        <v>3</v>
+      <c r="C287" s="1">
+        <v>7</v>
       </c>
       <c r="D287" s="18">
         <v>0</v>
@@ -15612,8 +15612,8 @@
       <c r="B288" s="18">
         <v>50</v>
       </c>
-      <c r="C288" s="18">
-        <v>3</v>
+      <c r="C288" s="1">
+        <v>7</v>
       </c>
       <c r="D288" s="18">
         <v>0</v>
@@ -15650,8 +15650,8 @@
       <c r="B289" s="18">
         <v>90</v>
       </c>
-      <c r="C289" s="18">
-        <v>3</v>
+      <c r="C289" s="1">
+        <v>7</v>
       </c>
       <c r="D289" s="18">
         <v>0</v>
@@ -15688,8 +15688,8 @@
       <c r="B290" s="18">
         <v>90</v>
       </c>
-      <c r="C290" s="18">
-        <v>3</v>
+      <c r="C290" s="1">
+        <v>7</v>
       </c>
       <c r="D290" s="18">
         <v>0</v>
@@ -15726,8 +15726,8 @@
       <c r="B291" s="18">
         <v>130</v>
       </c>
-      <c r="C291" s="18">
-        <v>3</v>
+      <c r="C291" s="1">
+        <v>7</v>
       </c>
       <c r="D291" s="18">
         <v>0</v>
@@ -15764,8 +15764,8 @@
       <c r="B292" s="18">
         <v>130</v>
       </c>
-      <c r="C292" s="18">
-        <v>3</v>
+      <c r="C292" s="1">
+        <v>7</v>
       </c>
       <c r="D292" s="18">
         <v>0</v>
@@ -15802,8 +15802,8 @@
       <c r="B293" s="18">
         <v>50</v>
       </c>
-      <c r="C293" s="18">
-        <v>3</v>
+      <c r="C293" s="1">
+        <v>7</v>
       </c>
       <c r="D293" s="18">
         <v>0</v>
@@ -15840,8 +15840,8 @@
       <c r="B294" s="18">
         <v>130</v>
       </c>
-      <c r="C294" s="18">
-        <v>3</v>
+      <c r="C294" s="1">
+        <v>7</v>
       </c>
       <c r="D294" s="18">
         <v>0</v>
@@ -15878,8 +15878,8 @@
       <c r="B295" s="18">
         <v>50</v>
       </c>
-      <c r="C295" s="18">
-        <v>3</v>
+      <c r="C295" s="1">
+        <v>7</v>
       </c>
       <c r="D295" s="18">
         <v>0</v>
@@ -15916,8 +15916,8 @@
       <c r="B296" s="18">
         <v>50</v>
       </c>
-      <c r="C296" s="18">
-        <v>3</v>
+      <c r="C296" s="1">
+        <v>7</v>
       </c>
       <c r="D296" s="18">
         <v>0</v>
@@ -15954,8 +15954,8 @@
       <c r="B297" s="18">
         <v>90</v>
       </c>
-      <c r="C297" s="18">
-        <v>3</v>
+      <c r="C297" s="1">
+        <v>7</v>
       </c>
       <c r="D297" s="18">
         <v>0</v>
@@ -15992,8 +15992,8 @@
       <c r="B298" s="18">
         <v>50</v>
       </c>
-      <c r="C298" s="18">
-        <v>3</v>
+      <c r="C298" s="1">
+        <v>7</v>
       </c>
       <c r="D298" s="18">
         <v>0</v>
@@ -16030,8 +16030,8 @@
       <c r="B299" s="18">
         <v>130</v>
       </c>
-      <c r="C299" s="18">
-        <v>3</v>
+      <c r="C299" s="1">
+        <v>7</v>
       </c>
       <c r="D299" s="18">
         <v>0</v>
@@ -16068,8 +16068,8 @@
       <c r="B300" s="18">
         <v>50</v>
       </c>
-      <c r="C300" s="18">
-        <v>3</v>
+      <c r="C300" s="1">
+        <v>7</v>
       </c>
       <c r="D300" s="18">
         <v>0</v>
@@ -16106,8 +16106,8 @@
       <c r="B301" s="18">
         <v>130</v>
       </c>
-      <c r="C301" s="18">
-        <v>3</v>
+      <c r="C301" s="1">
+        <v>7</v>
       </c>
       <c r="D301" s="18">
         <v>0</v>
@@ -16144,8 +16144,8 @@
       <c r="B302" s="18">
         <v>90</v>
       </c>
-      <c r="C302" s="18">
-        <v>3</v>
+      <c r="C302" s="1">
+        <v>7</v>
       </c>
       <c r="D302" s="18">
         <v>0</v>
@@ -16182,8 +16182,8 @@
       <c r="B303" s="18">
         <v>130</v>
       </c>
-      <c r="C303" s="18">
-        <v>3</v>
+      <c r="C303" s="1">
+        <v>7</v>
       </c>
       <c r="D303" s="18">
         <v>0</v>
@@ -16220,8 +16220,8 @@
       <c r="B304" s="18">
         <v>90</v>
       </c>
-      <c r="C304" s="18">
-        <v>3</v>
+      <c r="C304" s="1">
+        <v>7</v>
       </c>
       <c r="D304" s="18">
         <v>0</v>
@@ -16258,8 +16258,8 @@
       <c r="B305" s="18">
         <v>90</v>
       </c>
-      <c r="C305" s="18">
-        <v>3</v>
+      <c r="C305" s="1">
+        <v>7</v>
       </c>
       <c r="D305" s="18">
         <v>0</v>
@@ -16296,8 +16296,8 @@
       <c r="B306" s="18">
         <v>90</v>
       </c>
-      <c r="C306" s="18">
-        <v>3</v>
+      <c r="C306" s="1">
+        <v>7</v>
       </c>
       <c r="D306" s="18">
         <v>0</v>
@@ -16334,8 +16334,8 @@
       <c r="B307" s="18">
         <v>130</v>
       </c>
-      <c r="C307" s="18">
-        <v>3</v>
+      <c r="C307" s="1">
+        <v>7</v>
       </c>
       <c r="D307" s="18">
         <v>0</v>
@@ -16372,8 +16372,8 @@
       <c r="B308" s="18">
         <v>90</v>
       </c>
-      <c r="C308" s="18">
-        <v>3</v>
+      <c r="C308" s="1">
+        <v>7</v>
       </c>
       <c r="D308" s="18">
         <v>0</v>
@@ -16410,8 +16410,8 @@
       <c r="B309" s="18">
         <v>50</v>
       </c>
-      <c r="C309" s="18">
-        <v>3</v>
+      <c r="C309" s="1">
+        <v>7</v>
       </c>
       <c r="D309" s="18">
         <v>0</v>
@@ -16448,8 +16448,8 @@
       <c r="B310" s="18">
         <v>90</v>
       </c>
-      <c r="C310" s="18">
-        <v>3</v>
+      <c r="C310" s="1">
+        <v>7</v>
       </c>
       <c r="D310" s="18">
         <v>0</v>
@@ -16486,8 +16486,8 @@
       <c r="B311" s="18">
         <v>50</v>
       </c>
-      <c r="C311" s="18">
-        <v>3</v>
+      <c r="C311" s="1">
+        <v>7</v>
       </c>
       <c r="D311" s="18">
         <v>0</v>
@@ -16524,8 +16524,8 @@
       <c r="B312" s="18">
         <v>130</v>
       </c>
-      <c r="C312" s="18">
-        <v>3</v>
+      <c r="C312" s="1">
+        <v>7</v>
       </c>
       <c r="D312" s="18">
         <v>0</v>
@@ -16562,8 +16562,8 @@
       <c r="B313" s="18">
         <v>50</v>
       </c>
-      <c r="C313" s="18">
-        <v>3</v>
+      <c r="C313" s="1">
+        <v>7</v>
       </c>
       <c r="D313" s="18">
         <v>0</v>
@@ -16600,8 +16600,8 @@
       <c r="B314" s="18">
         <v>90</v>
       </c>
-      <c r="C314" s="18">
-        <v>3</v>
+      <c r="C314" s="1">
+        <v>7</v>
       </c>
       <c r="D314" s="18">
         <v>0</v>
@@ -16638,8 +16638,8 @@
       <c r="B315" s="18">
         <v>50</v>
       </c>
-      <c r="C315" s="18">
-        <v>3</v>
+      <c r="C315" s="1">
+        <v>7</v>
       </c>
       <c r="D315" s="18">
         <v>0</v>
@@ -16676,8 +16676,8 @@
       <c r="B316" s="18">
         <v>130</v>
       </c>
-      <c r="C316" s="18">
-        <v>3</v>
+      <c r="C316" s="1">
+        <v>7</v>
       </c>
       <c r="D316" s="18">
         <v>0</v>
@@ -16714,8 +16714,8 @@
       <c r="B317" s="18">
         <v>90</v>
       </c>
-      <c r="C317" s="18">
-        <v>3</v>
+      <c r="C317" s="1">
+        <v>7</v>
       </c>
       <c r="D317" s="18">
         <v>0</v>
@@ -16752,8 +16752,8 @@
       <c r="B318" s="18">
         <v>90</v>
       </c>
-      <c r="C318" s="18">
-        <v>3</v>
+      <c r="C318" s="1">
+        <v>7</v>
       </c>
       <c r="D318" s="18">
         <v>0</v>
@@ -16790,8 +16790,8 @@
       <c r="B319" s="18">
         <v>130</v>
       </c>
-      <c r="C319" s="18">
-        <v>3</v>
+      <c r="C319" s="1">
+        <v>7</v>
       </c>
       <c r="D319" s="18">
         <v>0</v>
@@ -16828,8 +16828,8 @@
       <c r="B320" s="18">
         <v>50</v>
       </c>
-      <c r="C320" s="18">
-        <v>3</v>
+      <c r="C320" s="1">
+        <v>7</v>
       </c>
       <c r="D320" s="18">
         <v>0</v>
@@ -16866,8 +16866,8 @@
       <c r="B321" s="18">
         <v>130</v>
       </c>
-      <c r="C321" s="18">
-        <v>3</v>
+      <c r="C321" s="1">
+        <v>7</v>
       </c>
       <c r="D321" s="18">
         <v>0</v>
@@ -16904,8 +16904,8 @@
       <c r="B322" s="18">
         <v>130</v>
       </c>
-      <c r="C322" s="18">
-        <v>3</v>
+      <c r="C322" s="1">
+        <v>7</v>
       </c>
       <c r="D322" s="18">
         <v>0</v>
@@ -16942,8 +16942,8 @@
       <c r="B323">
         <v>90</v>
       </c>
-      <c r="C323">
-        <v>3</v>
+      <c r="C323" s="1">
+        <v>7</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -16980,8 +16980,8 @@
       <c r="B324">
         <v>90</v>
       </c>
-      <c r="C324">
-        <v>3</v>
+      <c r="C324" s="1">
+        <v>7</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -17018,8 +17018,8 @@
       <c r="B325">
         <v>130</v>
       </c>
-      <c r="C325">
-        <v>3</v>
+      <c r="C325" s="1">
+        <v>7</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -17056,8 +17056,8 @@
       <c r="B326">
         <v>90</v>
       </c>
-      <c r="C326">
-        <v>3</v>
+      <c r="C326" s="1">
+        <v>7</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -17094,8 +17094,8 @@
       <c r="B327">
         <v>130</v>
       </c>
-      <c r="C327">
-        <v>3</v>
+      <c r="C327" s="1">
+        <v>7</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -17132,8 +17132,8 @@
       <c r="B328">
         <v>50</v>
       </c>
-      <c r="C328">
-        <v>3</v>
+      <c r="C328" s="1">
+        <v>7</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -17170,8 +17170,8 @@
       <c r="B329">
         <v>130</v>
       </c>
-      <c r="C329">
-        <v>3</v>
+      <c r="C329" s="1">
+        <v>7</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -17208,8 +17208,8 @@
       <c r="B330">
         <v>90</v>
       </c>
-      <c r="C330">
-        <v>3</v>
+      <c r="C330" s="1">
+        <v>7</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -17246,8 +17246,8 @@
       <c r="B331">
         <v>130</v>
       </c>
-      <c r="C331">
-        <v>3</v>
+      <c r="C331" s="1">
+        <v>7</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -17284,8 +17284,8 @@
       <c r="B332">
         <v>90</v>
       </c>
-      <c r="C332">
-        <v>3</v>
+      <c r="C332" s="1">
+        <v>7</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -17322,8 +17322,8 @@
       <c r="B333">
         <v>50</v>
       </c>
-      <c r="C333">
-        <v>3</v>
+      <c r="C333" s="1">
+        <v>7</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -17360,8 +17360,8 @@
       <c r="B334">
         <v>50</v>
       </c>
-      <c r="C334">
-        <v>3</v>
+      <c r="C334" s="1">
+        <v>7</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -17398,8 +17398,8 @@
       <c r="B335">
         <v>50</v>
       </c>
-      <c r="C335">
-        <v>3</v>
+      <c r="C335" s="1">
+        <v>7</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -17436,8 +17436,8 @@
       <c r="B336">
         <v>50</v>
       </c>
-      <c r="C336">
-        <v>3</v>
+      <c r="C336" s="1">
+        <v>7</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -17474,8 +17474,8 @@
       <c r="B337" s="13">
         <v>130</v>
       </c>
-      <c r="C337" s="13">
-        <v>3</v>
+      <c r="C337" s="1">
+        <v>7</v>
       </c>
       <c r="D337" s="13">
         <v>0</v>
@@ -17513,7 +17513,7 @@
         <v>130</v>
       </c>
       <c r="C338" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D338" s="1">
         <v>1</v>
@@ -17551,7 +17551,7 @@
         <v>90</v>
       </c>
       <c r="C339" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D339" s="1">
         <v>1</v>
@@ -17589,7 +17589,7 @@
         <v>50</v>
       </c>
       <c r="C340" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D340" s="1">
         <v>1</v>
@@ -17627,7 +17627,7 @@
         <v>90</v>
       </c>
       <c r="C341" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D341" s="1">
         <v>1</v>
@@ -17665,7 +17665,7 @@
         <v>130</v>
       </c>
       <c r="C342" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D342" s="1">
         <v>1</v>
@@ -17703,7 +17703,7 @@
         <v>50</v>
       </c>
       <c r="C343" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D343" s="1">
         <v>1</v>
@@ -17741,7 +17741,7 @@
         <v>130</v>
       </c>
       <c r="C344" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D344" s="1">
         <v>1</v>
@@ -17779,7 +17779,7 @@
         <v>90</v>
       </c>
       <c r="C345" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D345" s="1">
         <v>1</v>
@@ -17816,8 +17816,8 @@
       <c r="B346" s="20">
         <v>50</v>
       </c>
-      <c r="C346" s="19">
-        <v>3</v>
+      <c r="C346" s="1">
+        <v>7</v>
       </c>
       <c r="D346" s="19">
         <v>1</v>
@@ -17854,8 +17854,8 @@
       <c r="B347">
         <v>130</v>
       </c>
-      <c r="C347">
-        <v>3</v>
+      <c r="C347" s="1">
+        <v>7</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -17892,8 +17892,8 @@
       <c r="B348" s="18">
         <v>130</v>
       </c>
-      <c r="C348" s="18">
-        <v>3</v>
+      <c r="C348" s="1">
+        <v>7</v>
       </c>
       <c r="D348" s="18">
         <v>0</v>
@@ -17930,8 +17930,8 @@
       <c r="B349" s="18">
         <v>50</v>
       </c>
-      <c r="C349" s="18">
-        <v>3</v>
+      <c r="C349" s="1">
+        <v>7</v>
       </c>
       <c r="D349" s="18">
         <v>0</v>
@@ -17968,8 +17968,8 @@
       <c r="B350" s="18">
         <v>50</v>
       </c>
-      <c r="C350" s="18">
-        <v>3</v>
+      <c r="C350" s="1">
+        <v>7</v>
       </c>
       <c r="D350" s="18">
         <v>0</v>
@@ -18006,8 +18006,8 @@
       <c r="B351" s="18">
         <v>130</v>
       </c>
-      <c r="C351" s="18">
-        <v>3</v>
+      <c r="C351" s="1">
+        <v>7</v>
       </c>
       <c r="D351" s="18">
         <v>0</v>
@@ -18044,8 +18044,8 @@
       <c r="B352" s="18">
         <v>50</v>
       </c>
-      <c r="C352" s="18">
-        <v>3</v>
+      <c r="C352" s="1">
+        <v>7</v>
       </c>
       <c r="D352" s="18">
         <v>0</v>
@@ -18082,8 +18082,8 @@
       <c r="B353" s="18">
         <v>50</v>
       </c>
-      <c r="C353" s="18">
-        <v>3</v>
+      <c r="C353" s="1">
+        <v>7</v>
       </c>
       <c r="D353" s="18">
         <v>0</v>
@@ -18120,8 +18120,8 @@
       <c r="B354" s="18">
         <v>90</v>
       </c>
-      <c r="C354" s="18">
-        <v>3</v>
+      <c r="C354" s="1">
+        <v>7</v>
       </c>
       <c r="D354" s="18">
         <v>0</v>
@@ -18158,8 +18158,8 @@
       <c r="B355" s="18">
         <v>90</v>
       </c>
-      <c r="C355" s="18">
-        <v>3</v>
+      <c r="C355" s="1">
+        <v>7</v>
       </c>
       <c r="D355" s="18">
         <v>0</v>
@@ -18196,8 +18196,8 @@
       <c r="B356" s="18">
         <v>130</v>
       </c>
-      <c r="C356" s="18">
-        <v>3</v>
+      <c r="C356" s="1">
+        <v>7</v>
       </c>
       <c r="D356" s="18">
         <v>0</v>
@@ -18234,8 +18234,8 @@
       <c r="B357" s="18">
         <v>90</v>
       </c>
-      <c r="C357" s="18">
-        <v>3</v>
+      <c r="C357" s="1">
+        <v>7</v>
       </c>
       <c r="D357" s="18">
         <v>0</v>
@@ -18272,8 +18272,8 @@
       <c r="B358" s="18">
         <v>90</v>
       </c>
-      <c r="C358" s="18">
-        <v>3</v>
+      <c r="C358" s="1">
+        <v>7</v>
       </c>
       <c r="D358" s="18">
         <v>0</v>
@@ -18310,8 +18310,8 @@
       <c r="B359" s="18">
         <v>50</v>
       </c>
-      <c r="C359" s="18">
-        <v>3</v>
+      <c r="C359" s="1">
+        <v>7</v>
       </c>
       <c r="D359" s="18">
         <v>0</v>
@@ -18348,8 +18348,8 @@
       <c r="B360" s="18">
         <v>130</v>
       </c>
-      <c r="C360" s="18">
-        <v>3</v>
+      <c r="C360" s="1">
+        <v>7</v>
       </c>
       <c r="D360" s="18">
         <v>0</v>
@@ -18386,8 +18386,8 @@
       <c r="B361" s="18">
         <v>90</v>
       </c>
-      <c r="C361" s="18">
-        <v>3</v>
+      <c r="C361" s="1">
+        <v>7</v>
       </c>
       <c r="D361" s="18">
         <v>0</v>
@@ -18424,8 +18424,8 @@
       <c r="B362" s="18">
         <v>50</v>
       </c>
-      <c r="C362" s="18">
-        <v>3</v>
+      <c r="C362" s="1">
+        <v>7</v>
       </c>
       <c r="D362" s="18">
         <v>0</v>
@@ -18462,8 +18462,8 @@
       <c r="B363" s="18">
         <v>90</v>
       </c>
-      <c r="C363" s="18">
-        <v>3</v>
+      <c r="C363" s="1">
+        <v>7</v>
       </c>
       <c r="D363" s="18">
         <v>0</v>
@@ -18500,8 +18500,8 @@
       <c r="B364" s="18">
         <v>90</v>
       </c>
-      <c r="C364" s="18">
-        <v>3</v>
+      <c r="C364" s="1">
+        <v>7</v>
       </c>
       <c r="D364" s="18">
         <v>0</v>
@@ -18538,8 +18538,8 @@
       <c r="B365" s="18">
         <v>90</v>
       </c>
-      <c r="C365" s="18">
-        <v>3</v>
+      <c r="C365" s="1">
+        <v>7</v>
       </c>
       <c r="D365" s="18">
         <v>0</v>
@@ -18576,8 +18576,8 @@
       <c r="B366" s="18">
         <v>130</v>
       </c>
-      <c r="C366" s="18">
-        <v>3</v>
+      <c r="C366" s="1">
+        <v>7</v>
       </c>
       <c r="D366" s="18">
         <v>0</v>
@@ -18614,8 +18614,8 @@
       <c r="B367" s="18">
         <v>50</v>
       </c>
-      <c r="C367" s="18">
-        <v>3</v>
+      <c r="C367" s="1">
+        <v>7</v>
       </c>
       <c r="D367" s="18">
         <v>0</v>
@@ -18652,8 +18652,8 @@
       <c r="B368" s="18">
         <v>50</v>
       </c>
-      <c r="C368" s="18">
-        <v>3</v>
+      <c r="C368" s="1">
+        <v>7</v>
       </c>
       <c r="D368" s="18">
         <v>0</v>
@@ -18690,8 +18690,8 @@
       <c r="B369" s="18">
         <v>90</v>
       </c>
-      <c r="C369" s="18">
-        <v>3</v>
+      <c r="C369" s="1">
+        <v>7</v>
       </c>
       <c r="D369" s="18">
         <v>0</v>
@@ -18728,8 +18728,8 @@
       <c r="B370" s="18">
         <v>130</v>
       </c>
-      <c r="C370" s="18">
-        <v>3</v>
+      <c r="C370" s="1">
+        <v>7</v>
       </c>
       <c r="D370" s="18">
         <v>0</v>
@@ -18766,8 +18766,8 @@
       <c r="B371" s="18">
         <v>130</v>
       </c>
-      <c r="C371" s="18">
-        <v>3</v>
+      <c r="C371" s="1">
+        <v>7</v>
       </c>
       <c r="D371" s="18">
         <v>0</v>
@@ -18804,8 +18804,8 @@
       <c r="B372" s="18">
         <v>50</v>
       </c>
-      <c r="C372" s="18">
-        <v>3</v>
+      <c r="C372" s="1">
+        <v>7</v>
       </c>
       <c r="D372" s="18">
         <v>0</v>
@@ -18842,8 +18842,8 @@
       <c r="B373" s="18">
         <v>130</v>
       </c>
-      <c r="C373" s="18">
-        <v>3</v>
+      <c r="C373" s="1">
+        <v>7</v>
       </c>
       <c r="D373" s="18">
         <v>0</v>
@@ -18880,8 +18880,8 @@
       <c r="B374" s="18">
         <v>90</v>
       </c>
-      <c r="C374" s="18">
-        <v>3</v>
+      <c r="C374" s="1">
+        <v>7</v>
       </c>
       <c r="D374" s="18">
         <v>0</v>
@@ -18918,8 +18918,8 @@
       <c r="B375" s="18">
         <v>130</v>
       </c>
-      <c r="C375" s="18">
-        <v>3</v>
+      <c r="C375" s="1">
+        <v>7</v>
       </c>
       <c r="D375" s="18">
         <v>0</v>
@@ -18956,8 +18956,8 @@
       <c r="B376" s="18">
         <v>50</v>
       </c>
-      <c r="C376" s="18">
-        <v>3</v>
+      <c r="C376" s="1">
+        <v>7</v>
       </c>
       <c r="D376" s="18">
         <v>0</v>
@@ -18994,8 +18994,8 @@
       <c r="B377" s="18">
         <v>50</v>
       </c>
-      <c r="C377" s="18">
-        <v>3</v>
+      <c r="C377" s="1">
+        <v>7</v>
       </c>
       <c r="D377" s="18">
         <v>0</v>
@@ -19032,8 +19032,8 @@
       <c r="B378" s="18">
         <v>130</v>
       </c>
-      <c r="C378" s="18">
-        <v>3</v>
+      <c r="C378" s="1">
+        <v>7</v>
       </c>
       <c r="D378" s="18">
         <v>0</v>
@@ -19070,8 +19070,8 @@
       <c r="B379" s="18">
         <v>90</v>
       </c>
-      <c r="C379" s="18">
-        <v>3</v>
+      <c r="C379" s="1">
+        <v>7</v>
       </c>
       <c r="D379" s="18">
         <v>0</v>
@@ -19108,8 +19108,8 @@
       <c r="B380" s="18">
         <v>130</v>
       </c>
-      <c r="C380" s="18">
-        <v>3</v>
+      <c r="C380" s="1">
+        <v>7</v>
       </c>
       <c r="D380" s="18">
         <v>0</v>
@@ -19146,8 +19146,8 @@
       <c r="B381" s="18">
         <v>90</v>
       </c>
-      <c r="C381" s="18">
-        <v>3</v>
+      <c r="C381" s="1">
+        <v>7</v>
       </c>
       <c r="D381" s="18">
         <v>0</v>
@@ -19184,8 +19184,8 @@
       <c r="B382" s="18">
         <v>90</v>
       </c>
-      <c r="C382" s="18">
-        <v>3</v>
+      <c r="C382" s="1">
+        <v>7</v>
       </c>
       <c r="D382" s="18">
         <v>0</v>
@@ -19222,8 +19222,8 @@
       <c r="B383" s="18">
         <v>50</v>
       </c>
-      <c r="C383" s="18">
-        <v>3</v>
+      <c r="C383" s="1">
+        <v>7</v>
       </c>
       <c r="D383" s="18">
         <v>0</v>
@@ -19260,8 +19260,8 @@
       <c r="B384" s="18">
         <v>130</v>
       </c>
-      <c r="C384" s="18">
-        <v>3</v>
+      <c r="C384" s="1">
+        <v>7</v>
       </c>
       <c r="D384" s="18">
         <v>0</v>
@@ -19298,8 +19298,8 @@
       <c r="B385" s="18">
         <v>50</v>
       </c>
-      <c r="C385" s="18">
-        <v>3</v>
+      <c r="C385" s="1">
+        <v>7</v>
       </c>
       <c r="D385" s="18">
         <v>0</v>
@@ -19336,8 +19336,8 @@
       <c r="B386" s="18">
         <v>50</v>
       </c>
-      <c r="C386" s="18">
-        <v>3</v>
+      <c r="C386" s="1">
+        <v>7</v>
       </c>
       <c r="D386" s="18">
         <v>0</v>
@@ -19374,8 +19374,8 @@
       <c r="B387" s="18">
         <v>50</v>
       </c>
-      <c r="C387" s="18">
-        <v>3</v>
+      <c r="C387" s="1">
+        <v>7</v>
       </c>
       <c r="D387" s="18">
         <v>0</v>
@@ -19412,8 +19412,8 @@
       <c r="B388" s="18">
         <v>90</v>
       </c>
-      <c r="C388" s="18">
-        <v>3</v>
+      <c r="C388" s="1">
+        <v>7</v>
       </c>
       <c r="D388" s="18">
         <v>0</v>
@@ -19450,8 +19450,8 @@
       <c r="B389" s="18">
         <v>130</v>
       </c>
-      <c r="C389" s="18">
-        <v>3</v>
+      <c r="C389" s="1">
+        <v>7</v>
       </c>
       <c r="D389" s="18">
         <v>0</v>
@@ -19488,8 +19488,8 @@
       <c r="B390" s="18">
         <v>130</v>
       </c>
-      <c r="C390" s="18">
-        <v>3</v>
+      <c r="C390" s="1">
+        <v>7</v>
       </c>
       <c r="D390" s="18">
         <v>0</v>
@@ -19526,8 +19526,8 @@
       <c r="B391" s="18">
         <v>90</v>
       </c>
-      <c r="C391" s="18">
-        <v>3</v>
+      <c r="C391" s="1">
+        <v>7</v>
       </c>
       <c r="D391" s="18">
         <v>0</v>
@@ -19564,8 +19564,8 @@
       <c r="B392" s="18">
         <v>130</v>
       </c>
-      <c r="C392" s="18">
-        <v>3</v>
+      <c r="C392" s="1">
+        <v>7</v>
       </c>
       <c r="D392" s="18">
         <v>0</v>
@@ -19602,8 +19602,8 @@
       <c r="B393" s="18">
         <v>90</v>
       </c>
-      <c r="C393" s="18">
-        <v>3</v>
+      <c r="C393" s="1">
+        <v>7</v>
       </c>
       <c r="D393" s="18">
         <v>0</v>
@@ -19640,8 +19640,8 @@
       <c r="B394" s="18">
         <v>130</v>
       </c>
-      <c r="C394" s="18">
-        <v>3</v>
+      <c r="C394" s="1">
+        <v>7</v>
       </c>
       <c r="D394" s="18">
         <v>0</v>
@@ -19678,8 +19678,8 @@
       <c r="B395" s="18">
         <v>90</v>
       </c>
-      <c r="C395" s="18">
-        <v>3</v>
+      <c r="C395" s="1">
+        <v>7</v>
       </c>
       <c r="D395" s="18">
         <v>0</v>
@@ -19716,8 +19716,8 @@
       <c r="B396" s="18">
         <v>50</v>
       </c>
-      <c r="C396" s="18">
-        <v>3</v>
+      <c r="C396" s="1">
+        <v>7</v>
       </c>
       <c r="D396" s="18">
         <v>0</v>
@@ -19754,8 +19754,8 @@
       <c r="B397" s="18">
         <v>50</v>
       </c>
-      <c r="C397" s="18">
-        <v>3</v>
+      <c r="C397" s="1">
+        <v>7</v>
       </c>
       <c r="D397" s="18">
         <v>0</v>
@@ -19792,8 +19792,8 @@
       <c r="B398" s="18">
         <v>130</v>
       </c>
-      <c r="C398" s="18">
-        <v>3</v>
+      <c r="C398" s="1">
+        <v>7</v>
       </c>
       <c r="D398" s="18">
         <v>0</v>
@@ -19830,8 +19830,8 @@
       <c r="B399" s="18">
         <v>130</v>
       </c>
-      <c r="C399" s="18">
-        <v>3</v>
+      <c r="C399" s="1">
+        <v>7</v>
       </c>
       <c r="D399" s="18">
         <v>0</v>
@@ -19868,8 +19868,8 @@
       <c r="B400" s="18">
         <v>90</v>
       </c>
-      <c r="C400" s="18">
-        <v>3</v>
+      <c r="C400" s="1">
+        <v>7</v>
       </c>
       <c r="D400" s="18">
         <v>0</v>
@@ -19906,8 +19906,8 @@
       <c r="B401" s="18">
         <v>50</v>
       </c>
-      <c r="C401" s="18">
-        <v>3</v>
+      <c r="C401" s="1">
+        <v>7</v>
       </c>
       <c r="D401" s="18">
         <v>0</v>
@@ -19944,8 +19944,8 @@
       <c r="B402" s="18">
         <v>90</v>
       </c>
-      <c r="C402" s="18">
-        <v>3</v>
+      <c r="C402" s="1">
+        <v>7</v>
       </c>
       <c r="D402" s="18">
         <v>0</v>
@@ -19982,8 +19982,8 @@
       <c r="B403" s="18">
         <v>90</v>
       </c>
-      <c r="C403" s="18">
-        <v>3</v>
+      <c r="C403" s="1">
+        <v>7</v>
       </c>
       <c r="D403" s="18">
         <v>0</v>
@@ -20020,8 +20020,8 @@
       <c r="B404" s="18">
         <v>130</v>
       </c>
-      <c r="C404" s="18">
-        <v>3</v>
+      <c r="C404" s="1">
+        <v>7</v>
       </c>
       <c r="D404" s="18">
         <v>0</v>
@@ -20058,8 +20058,8 @@
       <c r="B405" s="18">
         <v>50</v>
       </c>
-      <c r="C405" s="18">
-        <v>3</v>
+      <c r="C405" s="1">
+        <v>7</v>
       </c>
       <c r="D405" s="18">
         <v>0</v>
@@ -20096,8 +20096,8 @@
       <c r="B406" s="18">
         <v>50</v>
       </c>
-      <c r="C406" s="18">
-        <v>3</v>
+      <c r="C406" s="1">
+        <v>7</v>
       </c>
       <c r="D406" s="18">
         <v>0</v>
@@ -20134,8 +20134,8 @@
       <c r="B407" s="18">
         <v>50</v>
       </c>
-      <c r="C407" s="18">
-        <v>3</v>
+      <c r="C407" s="1">
+        <v>7</v>
       </c>
       <c r="D407" s="18">
         <v>0</v>
@@ -20172,8 +20172,8 @@
       <c r="B408" s="18">
         <v>50</v>
       </c>
-      <c r="C408" s="18">
-        <v>3</v>
+      <c r="C408" s="1">
+        <v>7</v>
       </c>
       <c r="D408" s="18">
         <v>0</v>
@@ -20210,8 +20210,8 @@
       <c r="B409" s="18">
         <v>130</v>
       </c>
-      <c r="C409" s="18">
-        <v>3</v>
+      <c r="C409" s="1">
+        <v>7</v>
       </c>
       <c r="D409" s="18">
         <v>0</v>
@@ -20248,8 +20248,8 @@
       <c r="B410" s="18">
         <v>90</v>
       </c>
-      <c r="C410" s="18">
-        <v>3</v>
+      <c r="C410" s="1">
+        <v>7</v>
       </c>
       <c r="D410" s="18">
         <v>0</v>
@@ -20286,8 +20286,8 @@
       <c r="B411" s="18">
         <v>50</v>
       </c>
-      <c r="C411" s="18">
-        <v>3</v>
+      <c r="C411" s="1">
+        <v>7</v>
       </c>
       <c r="D411" s="18">
         <v>0</v>
@@ -20324,8 +20324,8 @@
       <c r="B412" s="18">
         <v>50</v>
       </c>
-      <c r="C412" s="18">
-        <v>3</v>
+      <c r="C412" s="1">
+        <v>7</v>
       </c>
       <c r="D412" s="18">
         <v>0</v>
@@ -20362,8 +20362,8 @@
       <c r="B413" s="18">
         <v>130</v>
       </c>
-      <c r="C413" s="18">
-        <v>3</v>
+      <c r="C413" s="1">
+        <v>7</v>
       </c>
       <c r="D413" s="18">
         <v>0</v>
@@ -20400,8 +20400,8 @@
       <c r="B414" s="18">
         <v>90</v>
       </c>
-      <c r="C414" s="18">
-        <v>3</v>
+      <c r="C414" s="1">
+        <v>7</v>
       </c>
       <c r="D414" s="18">
         <v>0</v>
@@ -20438,8 +20438,8 @@
       <c r="B415" s="18">
         <v>90</v>
       </c>
-      <c r="C415" s="18">
-        <v>3</v>
+      <c r="C415" s="1">
+        <v>7</v>
       </c>
       <c r="D415" s="18">
         <v>0</v>
@@ -20476,8 +20476,8 @@
       <c r="B416" s="18">
         <v>130</v>
       </c>
-      <c r="C416" s="18">
-        <v>3</v>
+      <c r="C416" s="1">
+        <v>7</v>
       </c>
       <c r="D416" s="18">
         <v>0</v>
@@ -20514,8 +20514,8 @@
       <c r="B417" s="18">
         <v>90</v>
       </c>
-      <c r="C417" s="18">
-        <v>3</v>
+      <c r="C417" s="1">
+        <v>7</v>
       </c>
       <c r="D417" s="18">
         <v>0</v>
@@ -36920,8 +36920,8 @@
       <c r="B418" s="18">
         <v>130</v>
       </c>
-      <c r="C418" s="18">
-        <v>3</v>
+      <c r="C418" s="1">
+        <v>7</v>
       </c>
       <c r="D418" s="18">
         <v>0</v>
@@ -53326,8 +53326,8 @@
       <c r="B419" s="18">
         <v>130</v>
       </c>
-      <c r="C419" s="18">
-        <v>3</v>
+      <c r="C419" s="1">
+        <v>7</v>
       </c>
       <c r="D419" s="18">
         <v>0</v>
@@ -69732,8 +69732,8 @@
       <c r="B420" s="18">
         <v>50</v>
       </c>
-      <c r="C420" s="18">
-        <v>3</v>
+      <c r="C420" s="1">
+        <v>7</v>
       </c>
       <c r="D420" s="18">
         <v>0</v>
@@ -86138,8 +86138,8 @@
       <c r="B421" s="18">
         <v>90</v>
       </c>
-      <c r="C421" s="18">
-        <v>3</v>
+      <c r="C421" s="1">
+        <v>7</v>
       </c>
       <c r="D421" s="18">
         <v>0</v>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMDLAB\Documents\Python-Experiments\Vibration-targeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603CCE0-D6FF-4812-9ECC-A19E5160FDA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC20290-DE10-469E-BD30-52E7EE53B64F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:K38"/>
+      <selection activeCell="B9" sqref="B9:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -671,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:M53" ca="1" si="0">RAND()</f>
-        <v>0.95999238406387011</v>
+        <f ca="1">RAND()</f>
+        <v>0.14108784967569843</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -707,11 +707,11 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6928820818697693</v>
+        <f ca="1">RAND()</f>
+        <v>0.67385965168432715</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98111202818925503</v>
+        <f ca="1">RAND()</f>
+        <v>0.10529292330349183</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -779,16 +779,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0683950497254679E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.51103695095631985</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37357806617610023</v>
+        <f ca="1">RAND()</f>
+        <v>0.90561988764953205</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74867696727557265</v>
+        <f ca="1">RAND()</f>
+        <v>0.44346728371766775</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -887,16 +887,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18506286601502997</v>
+        <f ca="1">RAND()</f>
+        <v>0.25575502477023759</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -923,11 +923,11 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81173092205031605</v>
+        <f ca="1">RAND()</f>
+        <v>0.18684855111343979</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -959,11 +959,11 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37479706209814123</v>
+        <f ca="1">RAND()</f>
+        <v>0.97386390369473708</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -998,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.630896385928847</v>
+        <f ca="1">RAND()</f>
+        <v>0.90914468533971515</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1034,13 +1034,13 @@
         <v>2</v>
       </c>
       <c r="M19">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8878603324208116E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.46568647020533727</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1070,13 +1070,13 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47901249395846424</v>
+        <f ca="1">RAND()</f>
+        <v>0.38388174236489769</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36708948832284971</v>
+        <f ca="1">RAND()</f>
+        <v>0.58213298794869917</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40495679347512059</v>
+        <f ca="1">RAND()</f>
+        <v>0.76904898119406151</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -1178,8 +1178,8 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75727009295892267</v>
+        <f ca="1">RAND()</f>
+        <v>0.94350034639398672</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -1215,8 +1215,8 @@
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.86198177285535182</v>
+        <f t="shared" ref="M24:M53" ca="1" si="0">RAND()</f>
+        <v>0.28367798953742274</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27481780182565785</v>
+        <v>2.2761084131740494E-2</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73819106388535305</v>
+        <v>0.90940330347349518</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35924485422336661</v>
+        <v>0.97314500705089158</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5578858399480393E-2</v>
+        <v>0.81334723926619579</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -1401,7 +1401,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16744633564854039</v>
+        <v>9.1339808992203397E-2</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7566213489202962E-2</v>
+        <v>0.72618307944164051</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90100049775363433</v>
+        <v>0.75561391861853899</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19174083320580659</v>
+        <v>0.78916754991922955</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60985885421733121</v>
+        <v>0.84807805925812829</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87710081053821354</v>
+        <v>0.45501766684745559</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82853982393325776</v>
+        <v>0.27012259238928815</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48460651480896122</v>
+        <v>0.94585136339949827</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9461001563469598E-2</v>
+        <v>0.81600685806386808</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2092593179292852</v>
+        <v>0.64752456040340389</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52022689272278466</v>
+        <v>0.76428535362056393</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11345443269600386</v>
+        <v>0.96734274313853064</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77026678957513883</v>
+        <v>9.4972476435148723E-2</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46511425191862588</v>
+        <v>0.53233534677647354</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24767301705114209</v>
+        <v>5.0788505223855696E-2</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85840970767067959</v>
+        <v>0.40173690418424535</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3768518306925714E-2</v>
+        <v>0.7733601970499423</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50385119207303986</v>
+        <v>7.3895910450103575E-3</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67437014464340228</v>
+        <v>0.92823909622136735</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46966899488207692</v>
+        <v>0.39045737474947606</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86746814363135027</v>
+        <v>0.43100769327395261</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54076152425286694</v>
+        <v>0.10015364327165621</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
       <c r="L51" s="18"/>
       <c r="M51" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65056266963756137</v>
+        <v>0.28770454082894426</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
       <c r="L52" s="18"/>
       <c r="M52" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33301741829107745</v>
+        <v>0.18369643890861631</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -2289,12 +2289,12 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2792438953152119E-2</v>
+        <v>0.66117814593882096</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B24:M38">
-    <sortCondition ref="M24:M38"/>
+  <sortState ref="B9:M23">
+    <sortCondition ref="M9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2493,7 +2493,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,10 +2829,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,6 +3458,576 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>130</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>130</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>130</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>130</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3471,7 +4041,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,8 +5249,8 @@
   </sheetPr>
   <dimension ref="A1:XEZ421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87049,19 +87619,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
@@ -87077,7 +87647,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -87086,25 +87656,25 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="15" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -87112,10 +87682,15 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
       <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -87134,128 +87709,1117 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>130</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>130</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>130</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>130</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>130</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>130</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>130</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>